--- a/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
+++ b/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89C8F03-59D5-4201-933B-A431D23F1316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D993D0-4BA4-43CB-A488-F7A0AA44AED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2650" windowWidth="30500" windowHeight="16810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numarul de reproductie RNumarul" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="214">
   <si>
     <t>Data</t>
   </si>
@@ -49,192 +49,6 @@
     <t>R975</t>
   </si>
   <si>
-    <t>29 Februarie</t>
-  </si>
-  <si>
-    <t>1 Martie</t>
-  </si>
-  <si>
-    <t>2 Martie</t>
-  </si>
-  <si>
-    <t>3 Martie</t>
-  </si>
-  <si>
-    <t>4 Martie</t>
-  </si>
-  <si>
-    <t>5 Martie</t>
-  </si>
-  <si>
-    <t>6 Martie</t>
-  </si>
-  <si>
-    <t>7 Martie</t>
-  </si>
-  <si>
-    <t>8 Martie</t>
-  </si>
-  <si>
-    <t>9 Martie</t>
-  </si>
-  <si>
-    <t>10 Martie</t>
-  </si>
-  <si>
-    <t>11 Martie</t>
-  </si>
-  <si>
-    <t>12 Martie</t>
-  </si>
-  <si>
-    <t>13 Martie</t>
-  </si>
-  <si>
-    <t>14 Martie</t>
-  </si>
-  <si>
-    <t>15 Martie</t>
-  </si>
-  <si>
-    <t>16 Martie</t>
-  </si>
-  <si>
-    <t>17 Martie</t>
-  </si>
-  <si>
-    <t>18 Martie</t>
-  </si>
-  <si>
-    <t>19 Martie</t>
-  </si>
-  <si>
-    <t>20 Martie</t>
-  </si>
-  <si>
-    <t>21 Martie</t>
-  </si>
-  <si>
-    <t>22 Martie</t>
-  </si>
-  <si>
-    <t>23 Martie</t>
-  </si>
-  <si>
-    <t>24 Martie</t>
-  </si>
-  <si>
-    <t>25 Martie</t>
-  </si>
-  <si>
-    <t>26 Martie</t>
-  </si>
-  <si>
-    <t>27 Martie</t>
-  </si>
-  <si>
-    <t>28 Martie</t>
-  </si>
-  <si>
-    <t>29 Martie</t>
-  </si>
-  <si>
-    <t>30 Martie</t>
-  </si>
-  <si>
-    <t>31 Martie</t>
-  </si>
-  <si>
-    <t>1 Aprilie</t>
-  </si>
-  <si>
-    <t>2 Aprilie</t>
-  </si>
-  <si>
-    <t>3 Aprilie</t>
-  </si>
-  <si>
-    <t>4 Aprilie</t>
-  </si>
-  <si>
-    <t>5 Aprilie</t>
-  </si>
-  <si>
-    <t>6 Aprilie</t>
-  </si>
-  <si>
-    <t>7 Aprilie</t>
-  </si>
-  <si>
-    <t>8 Aprilie</t>
-  </si>
-  <si>
-    <t>9 Aprilie</t>
-  </si>
-  <si>
-    <t>10 Aprilie</t>
-  </si>
-  <si>
-    <t>11 Aprilie</t>
-  </si>
-  <si>
-    <t>12 Aprilie</t>
-  </si>
-  <si>
-    <t>13 Aprilie</t>
-  </si>
-  <si>
-    <t>14 Aprilie</t>
-  </si>
-  <si>
-    <t>15 Aprilie</t>
-  </si>
-  <si>
-    <t>16 Aprilie</t>
-  </si>
-  <si>
-    <t>17 Aprilie</t>
-  </si>
-  <si>
-    <t>18 Aprilie</t>
-  </si>
-  <si>
-    <t>19 Aprilie</t>
-  </si>
-  <si>
-    <t>20 Aprilie</t>
-  </si>
-  <si>
-    <t>21 Aprilie</t>
-  </si>
-  <si>
-    <t>22 Aprilie</t>
-  </si>
-  <si>
-    <t>23 Aprilie</t>
-  </si>
-  <si>
-    <t>24 Aprilie</t>
-  </si>
-  <si>
-    <t>25 Aprilie</t>
-  </si>
-  <si>
-    <t>26 Aprilie</t>
-  </si>
-  <si>
-    <t>27 Aprilie</t>
-  </si>
-  <si>
-    <t>28 Aprilie</t>
-  </si>
-  <si>
-    <t>29 Aprilie</t>
-  </si>
-  <si>
-    <t>30 Aprilie</t>
-  </si>
-  <si>
     <t>1 Mai</t>
   </si>
   <si>
@@ -328,187 +142,526 @@
     <t>31 Mai</t>
   </si>
   <si>
-    <t>1 Iunie</t>
-  </si>
-  <si>
-    <t>2 Iunie</t>
-  </si>
-  <si>
-    <t>3 Iunie</t>
-  </si>
-  <si>
-    <t>4 Iunie</t>
-  </si>
-  <si>
-    <t>5 Iunie</t>
-  </si>
-  <si>
-    <t>6 Iunie</t>
-  </si>
-  <si>
-    <t>7 Iunie</t>
-  </si>
-  <si>
-    <t>8 Iunie</t>
-  </si>
-  <si>
-    <t>9 Iunie</t>
-  </si>
-  <si>
-    <t>10 Iunie</t>
-  </si>
-  <si>
-    <t>11 Iunie</t>
-  </si>
-  <si>
-    <t>12 Iunie</t>
-  </si>
-  <si>
-    <t>13 Iunie</t>
-  </si>
-  <si>
-    <t>14 Iunie</t>
-  </si>
-  <si>
-    <t>15 Iunie</t>
-  </si>
-  <si>
-    <t>16 Iunie</t>
-  </si>
-  <si>
-    <t>17 Iunie</t>
-  </si>
-  <si>
-    <t>18 Iunie</t>
-  </si>
-  <si>
-    <t>19 Iunie</t>
-  </si>
-  <si>
-    <t>20 Iunie</t>
-  </si>
-  <si>
-    <t>21 Iunie</t>
-  </si>
-  <si>
-    <t>22 Iunie</t>
-  </si>
-  <si>
-    <t>23 Iunie</t>
-  </si>
-  <si>
-    <t>24 Iunie</t>
-  </si>
-  <si>
-    <t>25 Iunie</t>
-  </si>
-  <si>
-    <t>26 Iunie</t>
-  </si>
-  <si>
-    <t>27 Iunie</t>
-  </si>
-  <si>
-    <t>28 Iunie</t>
-  </si>
-  <si>
-    <t>29 Iunie</t>
-  </si>
-  <si>
-    <t>30 Iunie</t>
-  </si>
-  <si>
-    <t>1 Iulie</t>
-  </si>
-  <si>
-    <t>2 Iulie</t>
-  </si>
-  <si>
-    <t>3 Iulie</t>
-  </si>
-  <si>
-    <t>4 Iulie</t>
-  </si>
-  <si>
-    <t>5 Iulie</t>
-  </si>
-  <si>
-    <t>6 Iulie</t>
-  </si>
-  <si>
-    <t>7 Iulie</t>
-  </si>
-  <si>
-    <t>8 Iulie</t>
-  </si>
-  <si>
-    <t>9 Iulie</t>
-  </si>
-  <si>
-    <t>10 Iulie</t>
-  </si>
-  <si>
-    <t>11 Iulie</t>
-  </si>
-  <si>
-    <t>12 Iulie</t>
-  </si>
-  <si>
-    <t>13 Iulie</t>
-  </si>
-  <si>
-    <t>14 Iulie</t>
-  </si>
-  <si>
-    <t>15 Iulie</t>
-  </si>
-  <si>
-    <t>16 Iulie</t>
-  </si>
-  <si>
-    <t>17 Iulie</t>
-  </si>
-  <si>
-    <t>18 Iulie</t>
-  </si>
-  <si>
-    <t>19 Iulie</t>
-  </si>
-  <si>
-    <t>20 Iulie</t>
-  </si>
-  <si>
-    <t>21 Iulie</t>
-  </si>
-  <si>
-    <t>22 Iulie</t>
-  </si>
-  <si>
-    <t>23 Iulie</t>
-  </si>
-  <si>
-    <t>24 Iulie</t>
-  </si>
-  <si>
-    <t>25 Iulie</t>
-  </si>
-  <si>
-    <t>26 Iulie</t>
-  </si>
-  <si>
-    <t>27 Iulie</t>
-  </si>
-  <si>
-    <t>28 Iulie</t>
-  </si>
-  <si>
-    <t>29 Iulie</t>
-  </si>
-  <si>
-    <t>30 Iulie</t>
-  </si>
-  <si>
-    <t>31 Iulie</t>
+    <t>29 Feb.</t>
+  </si>
+  <si>
+    <t>1 Mart.</t>
+  </si>
+  <si>
+    <t>2 Mart.</t>
+  </si>
+  <si>
+    <t>3 Mart.</t>
+  </si>
+  <si>
+    <t>4 Mart.</t>
+  </si>
+  <si>
+    <t>5 Mart.</t>
+  </si>
+  <si>
+    <t>6 Mart.</t>
+  </si>
+  <si>
+    <t>7 Mart.</t>
+  </si>
+  <si>
+    <t>8 Mart.</t>
+  </si>
+  <si>
+    <t>9 Mart.</t>
+  </si>
+  <si>
+    <t>10 Mart.</t>
+  </si>
+  <si>
+    <t>11 Mart.</t>
+  </si>
+  <si>
+    <t>12 Mart.</t>
+  </si>
+  <si>
+    <t>13 Mart.</t>
+  </si>
+  <si>
+    <t>14 Mart.</t>
+  </si>
+  <si>
+    <t>15 Mart.</t>
+  </si>
+  <si>
+    <t>16 Mart.</t>
+  </si>
+  <si>
+    <t>17 Mart.</t>
+  </si>
+  <si>
+    <t>18 Mart.</t>
+  </si>
+  <si>
+    <t>19 Mart.</t>
+  </si>
+  <si>
+    <t>20 Mart.</t>
+  </si>
+  <si>
+    <t>21 Mart.</t>
+  </si>
+  <si>
+    <t>22 Mart.</t>
+  </si>
+  <si>
+    <t>23 Mart.</t>
+  </si>
+  <si>
+    <t>24 Mart.</t>
+  </si>
+  <si>
+    <t>25 Mart.</t>
+  </si>
+  <si>
+    <t>26 Mart.</t>
+  </si>
+  <si>
+    <t>27 Mart.</t>
+  </si>
+  <si>
+    <t>28 Mart.</t>
+  </si>
+  <si>
+    <t>29 Mart.</t>
+  </si>
+  <si>
+    <t>30 Mart.</t>
+  </si>
+  <si>
+    <t>31 Mart.</t>
+  </si>
+  <si>
+    <t>1 Apr.</t>
+  </si>
+  <si>
+    <t>2 Apr.</t>
+  </si>
+  <si>
+    <t>3 Apr.</t>
+  </si>
+  <si>
+    <t>4 Apr.</t>
+  </si>
+  <si>
+    <t>5 Apr.</t>
+  </si>
+  <si>
+    <t>6 Apr.</t>
+  </si>
+  <si>
+    <t>7 Apr.</t>
+  </si>
+  <si>
+    <t>8 Apr.</t>
+  </si>
+  <si>
+    <t>9 Apr.</t>
+  </si>
+  <si>
+    <t>10 Apr.</t>
+  </si>
+  <si>
+    <t>11 Apr.</t>
+  </si>
+  <si>
+    <t>12 Apr.</t>
+  </si>
+  <si>
+    <t>13 Apr.</t>
+  </si>
+  <si>
+    <t>14 Apr.</t>
+  </si>
+  <si>
+    <t>15 Apr.</t>
+  </si>
+  <si>
+    <t>16 Apr.</t>
+  </si>
+  <si>
+    <t>17 Apr.</t>
+  </si>
+  <si>
+    <t>18 Apr.</t>
+  </si>
+  <si>
+    <t>19 Apr.</t>
+  </si>
+  <si>
+    <t>20 Apr.</t>
+  </si>
+  <si>
+    <t>21 Apr.</t>
+  </si>
+  <si>
+    <t>22 Apr.</t>
+  </si>
+  <si>
+    <t>23 Apr.</t>
+  </si>
+  <si>
+    <t>24 Apr.</t>
+  </si>
+  <si>
+    <t>25 Apr.</t>
+  </si>
+  <si>
+    <t>26 Apr.</t>
+  </si>
+  <si>
+    <t>27 Apr.</t>
+  </si>
+  <si>
+    <t>28 Apr.</t>
+  </si>
+  <si>
+    <t>29 Apr.</t>
+  </si>
+  <si>
+    <t>30 Apr.</t>
+  </si>
+  <si>
+    <t>1 Iun.</t>
+  </si>
+  <si>
+    <t>2 Iun.</t>
+  </si>
+  <si>
+    <t>3 Iun.</t>
+  </si>
+  <si>
+    <t>4 Iun.</t>
+  </si>
+  <si>
+    <t>5 Iun.</t>
+  </si>
+  <si>
+    <t>6 Iun.</t>
+  </si>
+  <si>
+    <t>7 Iun.</t>
+  </si>
+  <si>
+    <t>8 Iun.</t>
+  </si>
+  <si>
+    <t>9 Iun.</t>
+  </si>
+  <si>
+    <t>10 Iun.</t>
+  </si>
+  <si>
+    <t>11 Iun.</t>
+  </si>
+  <si>
+    <t>12 Iun.</t>
+  </si>
+  <si>
+    <t>13 Iun.</t>
+  </si>
+  <si>
+    <t>14 Iun.</t>
+  </si>
+  <si>
+    <t>15 Iun.</t>
+  </si>
+  <si>
+    <t>16 Iun.</t>
+  </si>
+  <si>
+    <t>17 Iun.</t>
+  </si>
+  <si>
+    <t>18 Iun.</t>
+  </si>
+  <si>
+    <t>19 Iun.</t>
+  </si>
+  <si>
+    <t>20 Iun.</t>
+  </si>
+  <si>
+    <t>21 Iun.</t>
+  </si>
+  <si>
+    <t>22 Iun.</t>
+  </si>
+  <si>
+    <t>23 Iun.</t>
+  </si>
+  <si>
+    <t>24 Iun.</t>
+  </si>
+  <si>
+    <t>25 Iun.</t>
+  </si>
+  <si>
+    <t>26 Iun.</t>
+  </si>
+  <si>
+    <t>27 Iun.</t>
+  </si>
+  <si>
+    <t>28 Iun.</t>
+  </si>
+  <si>
+    <t>29 Iun.</t>
+  </si>
+  <si>
+    <t>30 Iun.</t>
+  </si>
+  <si>
+    <t>1 Iul.</t>
+  </si>
+  <si>
+    <t>2 Iul.</t>
+  </si>
+  <si>
+    <t>3 Iul.</t>
+  </si>
+  <si>
+    <t>4 Iul.</t>
+  </si>
+  <si>
+    <t>5 Iul.</t>
+  </si>
+  <si>
+    <t>6 Iul.</t>
+  </si>
+  <si>
+    <t>7 Iul.</t>
+  </si>
+  <si>
+    <t>8 Iul.</t>
+  </si>
+  <si>
+    <t>9 Iul.</t>
+  </si>
+  <si>
+    <t>10 Iul.</t>
+  </si>
+  <si>
+    <t>11 Iul.</t>
+  </si>
+  <si>
+    <t>12 Iul.</t>
+  </si>
+  <si>
+    <t>13 Iul.</t>
+  </si>
+  <si>
+    <t>14 Iul.</t>
+  </si>
+  <si>
+    <t>15 Iul.</t>
+  </si>
+  <si>
+    <t>16 Iul.</t>
+  </si>
+  <si>
+    <t>17 Iul.</t>
+  </si>
+  <si>
+    <t>18 Iul.</t>
+  </si>
+  <si>
+    <t>19 Iul.</t>
+  </si>
+  <si>
+    <t>20 Iul.</t>
+  </si>
+  <si>
+    <t>21 Iul.</t>
+  </si>
+  <si>
+    <t>22 Iul.</t>
+  </si>
+  <si>
+    <t>23 Iul.</t>
+  </si>
+  <si>
+    <t>24 Iul.</t>
+  </si>
+  <si>
+    <t>25 Iul.</t>
+  </si>
+  <si>
+    <t>26 Iul.</t>
+  </si>
+  <si>
+    <t>27 Iul.</t>
+  </si>
+  <si>
+    <t>28 Iul.</t>
+  </si>
+  <si>
+    <t>29 Iul.</t>
+  </si>
+  <si>
+    <t>30 Iul.</t>
+  </si>
+  <si>
+    <t>31 Iul.</t>
+  </si>
+  <si>
+    <t>1 Aug.</t>
+  </si>
+  <si>
+    <t>2 Aug.</t>
+  </si>
+  <si>
+    <t>3 Aug.</t>
+  </si>
+  <si>
+    <t>4 Aug.</t>
+  </si>
+  <si>
+    <t>5 Aug.</t>
+  </si>
+  <si>
+    <t>6 Aug.</t>
+  </si>
+  <si>
+    <t>7 Aug.</t>
+  </si>
+  <si>
+    <t>8 Aug.</t>
+  </si>
+  <si>
+    <t>9 Aug.</t>
+  </si>
+  <si>
+    <t>10 Aug.</t>
+  </si>
+  <si>
+    <t>11 Aug.</t>
+  </si>
+  <si>
+    <t>12 Aug.</t>
+  </si>
+  <si>
+    <t>13 Aug.</t>
+  </si>
+  <si>
+    <t>14 Aug.</t>
+  </si>
+  <si>
+    <t>15 Aug.</t>
+  </si>
+  <si>
+    <t>16 Aug.</t>
+  </si>
+  <si>
+    <t>17 Aug.</t>
+  </si>
+  <si>
+    <t>18 Aug.</t>
+  </si>
+  <si>
+    <t>19 Aug.</t>
+  </si>
+  <si>
+    <t>20 Aug.</t>
+  </si>
+  <si>
+    <t>21 Aug.</t>
+  </si>
+  <si>
+    <t>22 Aug.</t>
+  </si>
+  <si>
+    <t>23 Aug.</t>
+  </si>
+  <si>
+    <t>24 Aug.</t>
+  </si>
+  <si>
+    <t>25 Aug.</t>
+  </si>
+  <si>
+    <t>26 Aug.</t>
+  </si>
+  <si>
+    <t>27 Aug.</t>
+  </si>
+  <si>
+    <t>28 Aug.</t>
+  </si>
+  <si>
+    <t>29 Aug.</t>
+  </si>
+  <si>
+    <t>30 Aug.</t>
+  </si>
+  <si>
+    <t>31 Aug.</t>
+  </si>
+  <si>
+    <t>1 Sept.</t>
+  </si>
+  <si>
+    <t>2 Sept.</t>
+  </si>
+  <si>
+    <t>3 Sept.</t>
+  </si>
+  <si>
+    <t>4 Sept.</t>
+  </si>
+  <si>
+    <t>5 Sept.</t>
+  </si>
+  <si>
+    <t>6 Sept.</t>
+  </si>
+  <si>
+    <t>7 Sept.</t>
+  </si>
+  <si>
+    <t>8 Sept.</t>
+  </si>
+  <si>
+    <t>9 Sept.</t>
+  </si>
+  <si>
+    <t>10 Sept.</t>
+  </si>
+  <si>
+    <t>11 Sept.</t>
+  </si>
+  <si>
+    <t>12 Sept.</t>
+  </si>
+  <si>
+    <t>13 Sept.</t>
+  </si>
+  <si>
+    <t>14 Sept.</t>
+  </si>
+  <si>
+    <t>15 Sept.</t>
+  </si>
+  <si>
+    <t>16 Sept.</t>
+  </si>
+  <si>
+    <t>17 Sept.</t>
+  </si>
+  <si>
+    <t>18 Sept.</t>
+  </si>
+  <si>
+    <t>19 Sept.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -992,9 +1145,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1350,296 +1502,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FZ9"/>
+  <dimension ref="A1:GW9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
-      <selection activeCell="FI16" sqref="FI16"/>
+    <sheetView tabSelected="1" topLeftCell="FS1" workbookViewId="0">
+      <selection sqref="A1:GW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="BM1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="BN1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="BO1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="BP1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="BQ1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="BR1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="BS1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="BT1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="BU1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="BV1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="BW1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="BX1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="BY1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="BZ1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="CA1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="CB1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="CC1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="CD1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="CE1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="CF1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="CG1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="CH1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="CI1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="CJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="CK1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="CL1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="CM1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="CN1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="CO1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="CP1" t="s">
         <v>39</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>101</v>
       </c>
       <c r="CQ1" t="s">
         <v>102</v>
@@ -1824,89 +1976,158 @@
       <c r="EY1" t="s">
         <v>162</v>
       </c>
-      <c r="EZ1" s="1">
-        <v>44044</v>
-      </c>
-      <c r="FA1" s="1">
-        <v>44045</v>
-      </c>
-      <c r="FB1" s="1">
-        <v>44046</v>
-      </c>
-      <c r="FC1" s="1">
-        <v>44047</v>
-      </c>
-      <c r="FD1" s="1">
-        <v>44048</v>
-      </c>
-      <c r="FE1" s="1">
-        <v>44049</v>
-      </c>
-      <c r="FF1" s="1">
-        <v>44050</v>
-      </c>
-      <c r="FG1" s="1">
-        <v>44051</v>
-      </c>
-      <c r="FH1" s="1">
-        <v>44052</v>
-      </c>
-      <c r="FI1" s="1">
-        <v>44053</v>
-      </c>
-      <c r="FJ1" s="1">
-        <v>44054</v>
-      </c>
-      <c r="FK1" s="1">
-        <v>44055</v>
-      </c>
-      <c r="FL1" s="1">
-        <v>44056</v>
-      </c>
-      <c r="FM1" s="1">
-        <v>44057</v>
-      </c>
-      <c r="FN1" s="1">
-        <v>44058</v>
-      </c>
-      <c r="FO1" s="1">
-        <v>44059</v>
-      </c>
-      <c r="FP1" s="1">
-        <v>44060</v>
-      </c>
-      <c r="FQ1" s="1">
-        <v>44061</v>
-      </c>
-      <c r="FR1" s="1">
-        <v>44062</v>
-      </c>
-      <c r="FS1" s="1">
-        <v>44063</v>
-      </c>
-      <c r="FT1" s="1">
-        <v>44064</v>
-      </c>
-      <c r="FU1" s="1">
-        <v>44065</v>
-      </c>
-      <c r="FV1" s="1">
-        <v>44066</v>
-      </c>
-      <c r="FW1" s="1">
-        <v>44067</v>
-      </c>
-      <c r="FX1" s="1">
-        <v>44068</v>
-      </c>
-      <c r="FY1" s="1">
-        <v>44069</v>
-      </c>
-      <c r="FZ1" s="1">
-        <v>44070</v>
+      <c r="EZ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>185</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>186</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>187</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>211</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2453,8 +2674,77 @@
       <c r="FZ2">
         <v>181</v>
       </c>
+      <c r="GA2">
+        <v>182</v>
+      </c>
+      <c r="GB2">
+        <v>183</v>
+      </c>
+      <c r="GC2">
+        <v>184</v>
+      </c>
+      <c r="GD2">
+        <v>185</v>
+      </c>
+      <c r="GE2">
+        <v>186</v>
+      </c>
+      <c r="GF2">
+        <v>187</v>
+      </c>
+      <c r="GG2">
+        <v>188</v>
+      </c>
+      <c r="GH2">
+        <v>189</v>
+      </c>
+      <c r="GI2">
+        <v>190</v>
+      </c>
+      <c r="GJ2">
+        <v>191</v>
+      </c>
+      <c r="GK2">
+        <v>192</v>
+      </c>
+      <c r="GL2">
+        <v>193</v>
+      </c>
+      <c r="GM2">
+        <v>194</v>
+      </c>
+      <c r="GN2">
+        <v>195</v>
+      </c>
+      <c r="GO2">
+        <v>196</v>
+      </c>
+      <c r="GP2">
+        <v>197</v>
+      </c>
+      <c r="GQ2">
+        <v>198</v>
+      </c>
+      <c r="GR2">
+        <v>199</v>
+      </c>
+      <c r="GS2">
+        <v>200</v>
+      </c>
+      <c r="GT2">
+        <v>201</v>
+      </c>
+      <c r="GU2">
+        <v>202</v>
+      </c>
+      <c r="GV2">
+        <v>203</v>
+      </c>
+      <c r="GW2">
+        <v>204</v>
+      </c>
     </row>
-    <row r="3" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2462,7 +2752,7 @@
         <v>1.87</v>
       </c>
       <c r="C3">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="D3">
         <v>1.84</v>
@@ -2471,7 +2761,7 @@
         <v>1.82</v>
       </c>
       <c r="F3">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G3">
         <v>1.79</v>
@@ -2501,7 +2791,7 @@
         <v>1.61</v>
       </c>
       <c r="P3">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q3">
         <v>1.58</v>
@@ -2588,7 +2878,7 @@
         <v>0.99</v>
       </c>
       <c r="AS3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AT3">
         <v>0.98</v>
@@ -2675,7 +2965,7 @@
         <v>0.85</v>
       </c>
       <c r="BV3">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BW3">
         <v>0.86</v>
@@ -2693,7 +2983,7 @@
         <v>0.91</v>
       </c>
       <c r="CB3">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="CC3">
         <v>0.94</v>
@@ -2753,7 +3043,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="CV3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="CW3">
         <v>1.17</v>
@@ -2798,7 +3088,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="DK3">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DL3">
         <v>1.1299999999999999</v>
@@ -2861,7 +3151,7 @@
         <v>1.21</v>
       </c>
       <c r="EF3">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="EG3">
         <v>1.2</v>
@@ -2897,7 +3187,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="ER3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="ES3">
         <v>1.06</v>
@@ -2918,7 +3208,7 @@
         <v>1.02</v>
       </c>
       <c r="EY3">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="EZ3">
         <v>1.01</v>
@@ -2945,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="FH3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FI3">
         <v>0.99</v>
@@ -2975,63 +3265,132 @@
         <v>0.99</v>
       </c>
       <c r="FR3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FS3">
         <v>1</v>
       </c>
       <c r="FT3">
+        <v>1</v>
+      </c>
+      <c r="FU3">
+        <v>1</v>
+      </c>
+      <c r="FV3">
         <v>1.01</v>
       </c>
-      <c r="FU3">
-        <v>1.02</v>
-      </c>
-      <c r="FV3">
-        <v>1.03</v>
-      </c>
       <c r="FW3">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="FX3">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="FY3">
         <v>1.01</v>
       </c>
       <c r="FZ3">
-        <v>0.95</v>
+        <v>1.01</v>
+      </c>
+      <c r="GA3">
+        <v>1.01</v>
+      </c>
+      <c r="GB3">
+        <v>1.01</v>
+      </c>
+      <c r="GC3">
+        <v>1.01</v>
+      </c>
+      <c r="GD3">
+        <v>1.02</v>
+      </c>
+      <c r="GE3">
+        <v>1.02</v>
+      </c>
+      <c r="GF3">
+        <v>1.02</v>
+      </c>
+      <c r="GG3">
+        <v>1.02</v>
+      </c>
+      <c r="GH3">
+        <v>1.02</v>
+      </c>
+      <c r="GI3">
+        <v>1.02</v>
+      </c>
+      <c r="GJ3">
+        <v>1.02</v>
+      </c>
+      <c r="GK3">
+        <v>1.02</v>
+      </c>
+      <c r="GL3">
+        <v>1.03</v>
+      </c>
+      <c r="GM3">
+        <v>1.03</v>
+      </c>
+      <c r="GN3">
+        <v>1.03</v>
+      </c>
+      <c r="GO3">
+        <v>1.03</v>
+      </c>
+      <c r="GP3">
+        <v>1.03</v>
+      </c>
+      <c r="GQ3">
+        <v>1.03</v>
+      </c>
+      <c r="GR3">
+        <v>1.03</v>
+      </c>
+      <c r="GS3">
+        <v>1.02</v>
+      </c>
+      <c r="GT3">
+        <v>1.01</v>
+      </c>
+      <c r="GU3">
+        <v>1</v>
+      </c>
+      <c r="GV3">
+        <v>1</v>
+      </c>
+      <c r="GW3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="C4">
         <v>1.75</v>
       </c>
       <c r="D4">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E4">
         <v>1.73</v>
       </c>
       <c r="F4">
+        <v>1.73</v>
+      </c>
+      <c r="G4">
         <v>1.72</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.71</v>
-      </c>
-      <c r="H4">
-        <v>1.7</v>
       </c>
       <c r="I4">
         <v>1.69</v>
       </c>
       <c r="J4">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="K4">
         <v>1.65</v>
@@ -3046,13 +3405,13 @@
         <v>1.59</v>
       </c>
       <c r="O4">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P4">
         <v>1.56</v>
       </c>
       <c r="Q4">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R4">
         <v>1.53</v>
@@ -3061,13 +3420,13 @@
         <v>1.52</v>
       </c>
       <c r="T4">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U4">
         <v>1.48</v>
       </c>
       <c r="V4">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W4">
         <v>1.43</v>
@@ -3148,7 +3507,7 @@
         <v>0.96</v>
       </c>
       <c r="AW4">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AX4">
         <v>0.95</v>
@@ -3163,10 +3522,10 @@
         <v>0.95</v>
       </c>
       <c r="BB4">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="BC4">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="BD4">
         <v>0.94</v>
@@ -3253,7 +3612,7 @@
         <v>0.95</v>
       </c>
       <c r="CF4">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="CG4">
         <v>0.98</v>
@@ -3271,7 +3630,7 @@
         <v>1.01</v>
       </c>
       <c r="CL4">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="CM4">
         <v>1.04</v>
@@ -3292,10 +3651,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="CS4">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CT4">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CU4">
         <v>1.1399999999999999</v>
@@ -3355,7 +3714,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="DN4">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DO4">
         <v>1.1299999999999999</v>
@@ -3382,13 +3741,13 @@
         <v>1.19</v>
       </c>
       <c r="DW4">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="DX4">
         <v>1.2</v>
       </c>
       <c r="DY4">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="DZ4">
         <v>1.21</v>
@@ -3400,7 +3759,7 @@
         <v>1.21</v>
       </c>
       <c r="EC4">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="ED4">
         <v>1.2</v>
@@ -3472,7 +3831,7 @@
         <v>1.01</v>
       </c>
       <c r="FA4">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -3529,42 +3888,111 @@
         <v>0.99</v>
       </c>
       <c r="FT4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FU4">
+        <v>1</v>
+      </c>
+      <c r="FV4">
+        <v>1</v>
+      </c>
+      <c r="FW4">
+        <v>1</v>
+      </c>
+      <c r="FX4">
+        <v>1</v>
+      </c>
+      <c r="FY4">
+        <v>1</v>
+      </c>
+      <c r="FZ4">
+        <v>1</v>
+      </c>
+      <c r="GA4">
+        <v>1</v>
+      </c>
+      <c r="GB4">
         <v>1.01</v>
       </c>
-      <c r="FV4">
+      <c r="GC4">
+        <v>1.01</v>
+      </c>
+      <c r="GD4">
+        <v>1.01</v>
+      </c>
+      <c r="GE4">
+        <v>1.01</v>
+      </c>
+      <c r="GF4">
+        <v>1.01</v>
+      </c>
+      <c r="GG4">
         <v>1.02</v>
       </c>
-      <c r="FW4">
-        <v>1.03</v>
-      </c>
-      <c r="FX4">
+      <c r="GH4">
+        <v>1.02</v>
+      </c>
+      <c r="GI4">
+        <v>1.02</v>
+      </c>
+      <c r="GJ4">
+        <v>1.02</v>
+      </c>
+      <c r="GK4">
+        <v>1.02</v>
+      </c>
+      <c r="GL4">
+        <v>1.02</v>
+      </c>
+      <c r="GM4">
+        <v>1.02</v>
+      </c>
+      <c r="GN4">
+        <v>1.02</v>
+      </c>
+      <c r="GO4">
+        <v>1.02</v>
+      </c>
+      <c r="GP4">
+        <v>1.02</v>
+      </c>
+      <c r="GQ4">
+        <v>1.02</v>
+      </c>
+      <c r="GR4">
+        <v>1.02</v>
+      </c>
+      <c r="GS4">
         <v>1.01</v>
       </c>
-      <c r="FY4">
-        <v>1</v>
-      </c>
-      <c r="FZ4">
-        <v>0.93</v>
+      <c r="GT4">
+        <v>1</v>
+      </c>
+      <c r="GU4">
+        <v>0.99</v>
+      </c>
+      <c r="GV4">
+        <v>0.99</v>
+      </c>
+      <c r="GW4">
+        <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="C5">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="D5">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="E5">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F5">
         <v>1.89</v>
@@ -3591,7 +4019,7 @@
         <v>1.7</v>
       </c>
       <c r="N5">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O5">
         <v>1.65</v>
@@ -3618,7 +4046,7 @@
         <v>1.51</v>
       </c>
       <c r="W5">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5">
         <v>1.44</v>
@@ -3627,13 +4055,13 @@
         <v>1.4</v>
       </c>
       <c r="Z5">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AA5">
         <v>1.33</v>
       </c>
       <c r="AB5">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AC5">
         <v>1.26</v>
@@ -3657,7 +4085,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="AJ5">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK5">
         <v>1.08</v>
@@ -3702,7 +4130,7 @@
         <v>0.98</v>
       </c>
       <c r="AY5">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AZ5">
         <v>0.97</v>
@@ -3735,7 +4163,7 @@
         <v>0.96</v>
       </c>
       <c r="BJ5">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="BK5">
         <v>0.95</v>
@@ -3744,7 +4172,7 @@
         <v>0.94</v>
       </c>
       <c r="BM5">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="BN5">
         <v>0.92</v>
@@ -3756,7 +4184,7 @@
         <v>0.9</v>
       </c>
       <c r="BQ5">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BR5">
         <v>0.87</v>
@@ -3792,7 +4220,7 @@
         <v>0.94</v>
       </c>
       <c r="CC5">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="CD5">
         <v>0.97</v>
@@ -3834,7 +4262,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CQ5">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CR5">
         <v>1.1499999999999999</v>
@@ -3879,19 +4307,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DF5">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DG5">
         <v>1.1399999999999999</v>
       </c>
       <c r="DH5">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="DI5">
         <v>1.1299999999999999</v>
       </c>
       <c r="DJ5">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="DK5">
         <v>1.1399999999999999</v>
@@ -3906,7 +4334,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DO5">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DP5">
         <v>1.1599999999999999</v>
@@ -3921,7 +4349,7 @@
         <v>1.19</v>
       </c>
       <c r="DT5">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="DU5">
         <v>1.2</v>
@@ -3978,7 +4406,7 @@
         <v>1.17</v>
       </c>
       <c r="EM5">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="EN5">
         <v>1.1399999999999999</v>
@@ -4026,7 +4454,7 @@
         <v>1.02</v>
       </c>
       <c r="FC5">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="FD5">
         <v>1.01</v>
@@ -4047,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="FJ5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FK5">
         <v>0.99</v>
@@ -4065,45 +4493,114 @@
         <v>0.99</v>
       </c>
       <c r="FP5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FQ5">
         <v>1</v>
       </c>
       <c r="FR5">
+        <v>1</v>
+      </c>
+      <c r="FS5">
+        <v>1</v>
+      </c>
+      <c r="FT5">
         <v>1.01</v>
       </c>
-      <c r="FS5">
+      <c r="FU5">
         <v>1.01</v>
       </c>
-      <c r="FT5">
+      <c r="FV5">
+        <v>1.01</v>
+      </c>
+      <c r="FW5">
+        <v>1.01</v>
+      </c>
+      <c r="FX5">
+        <v>1.01</v>
+      </c>
+      <c r="FY5">
         <v>1.02</v>
       </c>
-      <c r="FU5">
+      <c r="FZ5">
+        <v>1.02</v>
+      </c>
+      <c r="GA5">
+        <v>1.02</v>
+      </c>
+      <c r="GB5">
+        <v>1.02</v>
+      </c>
+      <c r="GC5">
+        <v>1.02</v>
+      </c>
+      <c r="GD5">
+        <v>1.02</v>
+      </c>
+      <c r="GE5">
+        <v>1.02</v>
+      </c>
+      <c r="GF5">
         <v>1.03</v>
       </c>
-      <c r="FV5">
-        <v>1.05</v>
-      </c>
-      <c r="FW5">
-        <v>1.07</v>
-      </c>
-      <c r="FX5">
+      <c r="GG5">
         <v>1.03</v>
       </c>
-      <c r="FY5">
+      <c r="GH5">
         <v>1.03</v>
       </c>
-      <c r="FZ5">
-        <v>0.97</v>
+      <c r="GI5">
+        <v>1.03</v>
+      </c>
+      <c r="GJ5">
+        <v>1.03</v>
+      </c>
+      <c r="GK5">
+        <v>1.03</v>
+      </c>
+      <c r="GL5">
+        <v>1.03</v>
+      </c>
+      <c r="GM5">
+        <v>1.03</v>
+      </c>
+      <c r="GN5">
+        <v>1.03</v>
+      </c>
+      <c r="GO5">
+        <v>1.04</v>
+      </c>
+      <c r="GP5">
+        <v>1.04</v>
+      </c>
+      <c r="GQ5">
+        <v>1.04</v>
+      </c>
+      <c r="GR5">
+        <v>1.04</v>
+      </c>
+      <c r="GS5">
+        <v>1.03</v>
+      </c>
+      <c r="GT5">
+        <v>1.02</v>
+      </c>
+      <c r="GU5">
+        <v>1.02</v>
+      </c>
+      <c r="GV5">
+        <v>1.01</v>
+      </c>
+      <c r="GW5">
+        <v>1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="C6">
         <v>1.62</v>
@@ -4115,13 +4612,13 @@
         <v>1.62</v>
       </c>
       <c r="F6">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G6">
         <v>1.62</v>
       </c>
       <c r="H6">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I6">
         <v>1.61</v>
@@ -4133,25 +4630,25 @@
         <v>1.58</v>
       </c>
       <c r="L6">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M6">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="N6">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O6">
         <v>1.52</v>
       </c>
       <c r="P6">
+        <v>1.51</v>
+      </c>
+      <c r="Q6">
         <v>1.5</v>
       </c>
-      <c r="Q6">
-        <v>1.49</v>
-      </c>
       <c r="R6">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S6">
         <v>1.48</v>
@@ -4166,10 +4663,10 @@
         <v>1.42</v>
       </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X6">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Y6">
         <v>1.33</v>
@@ -4178,10 +4675,10 @@
         <v>1.3</v>
       </c>
       <c r="AA6">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AB6">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AC6">
         <v>1.21</v>
@@ -4208,7 +4705,7 @@
         <v>1.05</v>
       </c>
       <c r="AK6">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AL6">
         <v>1.02</v>
@@ -4229,7 +4726,7 @@
         <v>0.97</v>
       </c>
       <c r="AR6">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="AS6">
         <v>0.96</v>
@@ -4238,7 +4735,7 @@
         <v>0.95</v>
       </c>
       <c r="AU6">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="AV6">
         <v>0.94</v>
@@ -4268,7 +4765,7 @@
         <v>0.93</v>
       </c>
       <c r="BE6">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BF6">
         <v>0.92</v>
@@ -4280,7 +4777,7 @@
         <v>0.92</v>
       </c>
       <c r="BI6">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="BJ6">
         <v>0.91</v>
@@ -4301,7 +4798,7 @@
         <v>0.87</v>
       </c>
       <c r="BP6">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="BQ6">
         <v>0.84</v>
@@ -4370,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="CM6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CN6">
         <v>1.03</v>
@@ -4382,7 +4879,7 @@
         <v>1.06</v>
       </c>
       <c r="CQ6">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="CR6">
         <v>1.0900000000000001</v>
@@ -4397,7 +4894,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CV6">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CW6">
         <v>1.1299999999999999</v>
@@ -4442,7 +4939,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="DK6">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="DL6">
         <v>1.1000000000000001</v>
@@ -4454,7 +4951,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DO6">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DP6">
         <v>1.1200000000000001</v>
@@ -4466,10 +4963,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="DS6">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DT6">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DU6">
         <v>1.1599999999999999</v>
@@ -4481,7 +4978,7 @@
         <v>1.18</v>
       </c>
       <c r="DX6">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="DY6">
         <v>1.19</v>
@@ -4529,7 +5026,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="EN6">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="EO6">
         <v>1.1000000000000001</v>
@@ -4544,7 +5041,7 @@
         <v>1.06</v>
       </c>
       <c r="ES6">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="ET6">
         <v>1.03</v>
@@ -4571,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="FB6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FC6">
         <v>0.99</v>
@@ -4616,10 +5113,10 @@
         <v>0.97</v>
       </c>
       <c r="FQ6">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="FR6">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="FS6">
         <v>0.98</v>
@@ -4631,22 +5128,91 @@
         <v>0.99</v>
       </c>
       <c r="FV6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FW6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FX6">
+        <v>0.99</v>
+      </c>
+      <c r="FY6">
+        <v>0.99</v>
+      </c>
+      <c r="FZ6">
+        <v>0.99</v>
+      </c>
+      <c r="GA6">
+        <v>0.99</v>
+      </c>
+      <c r="GB6">
+        <v>1</v>
+      </c>
+      <c r="GC6">
+        <v>1</v>
+      </c>
+      <c r="GD6">
+        <v>1</v>
+      </c>
+      <c r="GE6">
+        <v>1</v>
+      </c>
+      <c r="GF6">
+        <v>1</v>
+      </c>
+      <c r="GG6">
+        <v>1.01</v>
+      </c>
+      <c r="GH6">
+        <v>1.01</v>
+      </c>
+      <c r="GI6">
+        <v>1.01</v>
+      </c>
+      <c r="GJ6">
+        <v>1.01</v>
+      </c>
+      <c r="GK6">
+        <v>1.01</v>
+      </c>
+      <c r="GL6">
+        <v>1.01</v>
+      </c>
+      <c r="GM6">
+        <v>1.01</v>
+      </c>
+      <c r="GN6">
+        <v>1.01</v>
+      </c>
+      <c r="GO6">
+        <v>1.01</v>
+      </c>
+      <c r="GP6">
+        <v>1.01</v>
+      </c>
+      <c r="GQ6">
+        <v>1.01</v>
+      </c>
+      <c r="GR6">
+        <v>1</v>
+      </c>
+      <c r="GS6">
+        <v>1</v>
+      </c>
+      <c r="GT6">
+        <v>0.99</v>
+      </c>
+      <c r="GU6">
         <v>0.98</v>
       </c>
-      <c r="FY6">
+      <c r="GV6">
         <v>0.97</v>
       </c>
-      <c r="FZ6">
-        <v>0.91</v>
+      <c r="GW6">
+        <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4654,37 +5220,37 @@
         <v>2.16</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="D7">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="E7">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H7">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I7">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J7">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="K7">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="L7">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="M7">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="N7">
         <v>1.74</v>
@@ -4696,19 +5262,19 @@
         <v>1.69</v>
       </c>
       <c r="Q7">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R7">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S7">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T7">
         <v>1.6</v>
       </c>
       <c r="U7">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V7">
         <v>1.55</v>
@@ -4717,10 +5283,10 @@
         <v>1.51</v>
       </c>
       <c r="X7">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Y7">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Z7">
         <v>1.4</v>
@@ -4735,7 +5301,7 @@
         <v>1.29</v>
       </c>
       <c r="AD7">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AE7">
         <v>1.23</v>
@@ -4753,7 +5319,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AK7">
         <v>1.1000000000000001</v>
@@ -4813,7 +5379,7 @@
         <v>0.99</v>
       </c>
       <c r="BD7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="BE7">
         <v>0.98</v>
@@ -4858,7 +5424,7 @@
         <v>0.89</v>
       </c>
       <c r="BS7">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BT7">
         <v>0.88</v>
@@ -4879,22 +5445,22 @@
         <v>0.92</v>
       </c>
       <c r="BZ7">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="CA7">
         <v>0.95</v>
       </c>
       <c r="CB7">
+        <v>0.96</v>
+      </c>
+      <c r="CC7">
         <v>0.97</v>
-      </c>
-      <c r="CC7">
-        <v>0.98</v>
       </c>
       <c r="CD7">
         <v>0.99</v>
       </c>
       <c r="CE7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="CF7">
         <v>1.02</v>
@@ -4915,10 +5481,10 @@
         <v>1.07</v>
       </c>
       <c r="CL7">
+        <v>1.08</v>
+      </c>
+      <c r="CM7">
         <v>1.0900000000000001</v>
-      </c>
-      <c r="CM7">
-        <v>1.1000000000000001</v>
       </c>
       <c r="CN7">
         <v>1.1100000000000001</v>
@@ -4927,13 +5493,13 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="CP7">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="CQ7">
         <v>1.1599999999999999</v>
       </c>
       <c r="CR7">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="CS7">
         <v>1.18</v>
@@ -4960,7 +5526,7 @@
         <v>1.21</v>
       </c>
       <c r="DA7">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="DB7">
         <v>1.2</v>
@@ -4987,10 +5553,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DJ7">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DK7">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DL7">
         <v>1.1599999999999999</v>
@@ -5008,7 +5574,7 @@
         <v>1.18</v>
       </c>
       <c r="DQ7">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="DR7">
         <v>1.19</v>
@@ -5035,7 +5601,7 @@
         <v>1.24</v>
       </c>
       <c r="DZ7">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="EA7">
         <v>1.24</v>
@@ -5098,10 +5664,10 @@
         <v>1.07</v>
       </c>
       <c r="EU7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="EV7">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="EW7">
         <v>1.04</v>
@@ -5122,7 +5688,7 @@
         <v>1.03</v>
       </c>
       <c r="FC7">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="FD7">
         <v>1.02</v>
@@ -5140,10 +5706,10 @@
         <v>1.01</v>
       </c>
       <c r="FI7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="FJ7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="FK7">
         <v>1</v>
@@ -5158,43 +5724,112 @@
         <v>1</v>
       </c>
       <c r="FO7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="FP7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="FQ7">
         <v>1.01</v>
       </c>
       <c r="FR7">
+        <v>1.01</v>
+      </c>
+      <c r="FS7">
+        <v>1.01</v>
+      </c>
+      <c r="FT7">
         <v>1.02</v>
       </c>
-      <c r="FS7">
+      <c r="FU7">
+        <v>1.02</v>
+      </c>
+      <c r="FV7">
+        <v>1.02</v>
+      </c>
+      <c r="FW7">
+        <v>1.02</v>
+      </c>
+      <c r="FX7">
+        <v>1.02</v>
+      </c>
+      <c r="FY7">
+        <v>1.02</v>
+      </c>
+      <c r="FZ7">
         <v>1.03</v>
       </c>
-      <c r="FT7">
+      <c r="GA7">
         <v>1.03</v>
       </c>
-      <c r="FU7">
+      <c r="GB7">
+        <v>1.03</v>
+      </c>
+      <c r="GC7">
+        <v>1.03</v>
+      </c>
+      <c r="GD7">
+        <v>1.03</v>
+      </c>
+      <c r="GE7">
+        <v>1.03</v>
+      </c>
+      <c r="GF7">
+        <v>1.04</v>
+      </c>
+      <c r="GG7">
+        <v>1.04</v>
+      </c>
+      <c r="GH7">
+        <v>1.04</v>
+      </c>
+      <c r="GI7">
+        <v>1.04</v>
+      </c>
+      <c r="GJ7">
+        <v>1.04</v>
+      </c>
+      <c r="GK7">
+        <v>1.04</v>
+      </c>
+      <c r="GL7">
+        <v>1.04</v>
+      </c>
+      <c r="GM7">
+        <v>1.04</v>
+      </c>
+      <c r="GN7">
+        <v>1.04</v>
+      </c>
+      <c r="GO7">
         <v>1.05</v>
       </c>
-      <c r="FV7">
-        <v>1.07</v>
-      </c>
-      <c r="FW7">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="FX7">
+      <c r="GP7">
         <v>1.05</v>
       </c>
-      <c r="FY7">
-        <v>1.06</v>
-      </c>
-      <c r="FZ7">
-        <v>0.99</v>
+      <c r="GQ7">
+        <v>1.05</v>
+      </c>
+      <c r="GR7">
+        <v>1.05</v>
+      </c>
+      <c r="GS7">
+        <v>1.05</v>
+      </c>
+      <c r="GT7">
+        <v>1.04</v>
+      </c>
+      <c r="GU7">
+        <v>1.03</v>
+      </c>
+      <c r="GV7">
+        <v>1.03</v>
+      </c>
+      <c r="GW7">
+        <v>1.04</v>
       </c>
     </row>
-    <row r="8" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5202,16 +5837,16 @@
         <v>1.58</v>
       </c>
       <c r="C8">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="D8">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="E8">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="F8">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G8">
         <v>1.58</v>
@@ -5220,22 +5855,22 @@
         <v>1.59</v>
       </c>
       <c r="I8">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J8">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="K8">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="L8">
         <v>1.54</v>
       </c>
       <c r="M8">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="N8">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="O8">
         <v>1.5</v>
@@ -5256,13 +5891,13 @@
         <v>1.45</v>
       </c>
       <c r="U8">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="V8">
         <v>1.41</v>
       </c>
       <c r="W8">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X8">
         <v>1.35</v>
@@ -5274,7 +5909,7 @@
         <v>1.29</v>
       </c>
       <c r="AA8">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AB8">
         <v>1.23</v>
@@ -5286,10 +5921,10 @@
         <v>1.17</v>
       </c>
       <c r="AE8">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AF8">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AG8">
         <v>1.1000000000000001</v>
@@ -5337,7 +5972,7 @@
         <v>0.94</v>
       </c>
       <c r="AV8">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="AW8">
         <v>0.93</v>
@@ -5391,7 +6026,7 @@
         <v>0.89</v>
       </c>
       <c r="BN8">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="BO8">
         <v>0.86</v>
@@ -5400,16 +6035,16 @@
         <v>0.85</v>
       </c>
       <c r="BQ8">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="BR8">
+        <v>0.83</v>
+      </c>
+      <c r="BS8">
         <v>0.82</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>0.81</v>
-      </c>
-      <c r="BT8">
-        <v>0.82</v>
       </c>
       <c r="BU8">
         <v>0.81</v>
@@ -5418,16 +6053,16 @@
         <v>0.82</v>
       </c>
       <c r="BW8">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="BX8">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="BY8">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BZ8">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="CA8">
         <v>0.87</v>
@@ -5436,7 +6071,7 @@
         <v>0.88</v>
       </c>
       <c r="CC8">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="CD8">
         <v>0.91</v>
@@ -5448,13 +6083,13 @@
         <v>0.93</v>
       </c>
       <c r="CG8">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CH8">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="CI8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="CJ8">
         <v>0.97</v>
@@ -5466,13 +6101,13 @@
         <v>0.99</v>
       </c>
       <c r="CM8">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="CN8">
         <v>1.02</v>
       </c>
       <c r="CO8">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="CP8">
         <v>1.05</v>
@@ -5484,7 +6119,7 @@
         <v>1.08</v>
       </c>
       <c r="CS8">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CT8">
         <v>1.1000000000000001</v>
@@ -5499,7 +6134,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CX8">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="CY8">
         <v>1.1299999999999999</v>
@@ -5514,10 +6149,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="DC8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="DD8">
         <v>1.1100000000000001</v>
-      </c>
-      <c r="DD8">
-        <v>1.1000000000000001</v>
       </c>
       <c r="DE8">
         <v>1.1000000000000001</v>
@@ -5574,7 +6209,7 @@
         <v>1.17</v>
       </c>
       <c r="DW8">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="DX8">
         <v>1.18</v>
@@ -5622,7 +6257,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="EM8">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="EN8">
         <v>1.1100000000000001</v>
@@ -5637,7 +6272,7 @@
         <v>1.07</v>
       </c>
       <c r="ER8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="ES8">
         <v>1.04</v>
@@ -5652,7 +6287,7 @@
         <v>1.01</v>
       </c>
       <c r="EW8">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="EX8">
         <v>1</v>
@@ -5661,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="EZ8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FA8">
         <v>0.99</v>
@@ -5697,16 +6332,16 @@
         <v>0.97</v>
       </c>
       <c r="FL8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="FM8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="FN8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="FO8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="FP8">
         <v>0.97</v>
@@ -5715,10 +6350,10 @@
         <v>0.97</v>
       </c>
       <c r="FR8">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="FS8">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="FT8">
         <v>0.98</v>
@@ -5730,33 +6365,102 @@
         <v>0.99</v>
       </c>
       <c r="FW8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="FX8">
+        <v>0.99</v>
+      </c>
+      <c r="FY8">
+        <v>0.99</v>
+      </c>
+      <c r="FZ8">
+        <v>0.99</v>
+      </c>
+      <c r="GA8">
+        <v>0.99</v>
+      </c>
+      <c r="GB8">
+        <v>0.99</v>
+      </c>
+      <c r="GC8">
+        <v>1</v>
+      </c>
+      <c r="GD8">
+        <v>1</v>
+      </c>
+      <c r="GE8">
+        <v>1</v>
+      </c>
+      <c r="GF8">
+        <v>1</v>
+      </c>
+      <c r="GG8">
+        <v>1</v>
+      </c>
+      <c r="GH8">
+        <v>1</v>
+      </c>
+      <c r="GI8">
+        <v>1</v>
+      </c>
+      <c r="GJ8">
+        <v>1</v>
+      </c>
+      <c r="GK8">
+        <v>1</v>
+      </c>
+      <c r="GL8">
+        <v>1</v>
+      </c>
+      <c r="GM8">
+        <v>1</v>
+      </c>
+      <c r="GN8">
+        <v>1.01</v>
+      </c>
+      <c r="GO8">
+        <v>1</v>
+      </c>
+      <c r="GP8">
+        <v>1.01</v>
+      </c>
+      <c r="GQ8">
+        <v>1</v>
+      </c>
+      <c r="GR8">
+        <v>1</v>
+      </c>
+      <c r="GS8">
+        <v>0.99</v>
+      </c>
+      <c r="GT8">
         <v>0.98</v>
       </c>
-      <c r="FY8">
+      <c r="GU8">
+        <v>0.97</v>
+      </c>
+      <c r="GV8">
         <v>0.96</v>
       </c>
-      <c r="FZ8">
-        <v>0.9</v>
+      <c r="GW8">
+        <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:182" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:205" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.21</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C9">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="D9">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="E9">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="F9">
         <v>2.04</v>
@@ -5768,22 +6472,22 @@
         <v>1.96</v>
       </c>
       <c r="I9">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J9">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K9">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="L9">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="M9">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="N9">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="O9">
         <v>1.73</v>
@@ -5807,28 +6511,28 @@
         <v>1.59</v>
       </c>
       <c r="V9">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W9">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X9">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Y9">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Z9">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AA9">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AB9">
         <v>1.33</v>
       </c>
       <c r="AC9">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AD9">
         <v>1.26</v>
@@ -5840,7 +6544,7 @@
         <v>1.21</v>
       </c>
       <c r="AG9">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AH9">
         <v>1.1599999999999999</v>
@@ -5852,13 +6556,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AK9">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL9">
         <v>1.0900000000000001</v>
       </c>
       <c r="AM9">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AN9">
         <v>1.06</v>
@@ -5873,7 +6577,7 @@
         <v>1.03</v>
       </c>
       <c r="AR9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AS9">
         <v>1.02</v>
@@ -5882,10 +6586,10 @@
         <v>1.01</v>
       </c>
       <c r="AU9">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AW9">
         <v>1</v>
@@ -5894,16 +6598,16 @@
         <v>1</v>
       </c>
       <c r="AY9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BA9">
         <v>0.99</v>
       </c>
       <c r="BB9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BC9">
         <v>0.99</v>
@@ -5915,10 +6619,10 @@
         <v>0.99</v>
       </c>
       <c r="BF9">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="BG9">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="BH9">
         <v>0.98</v>
@@ -5963,10 +6667,10 @@
         <v>0.89</v>
       </c>
       <c r="BV9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BW9">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BX9">
         <v>0.91</v>
@@ -5978,19 +6682,19 @@
         <v>0.94</v>
       </c>
       <c r="CA9">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="CB9">
         <v>0.97</v>
       </c>
       <c r="CC9">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="CD9">
         <v>1</v>
       </c>
       <c r="CE9">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="CF9">
         <v>1.03</v>
@@ -6017,10 +6721,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CN9">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="CO9">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CP9">
         <v>1.1499999999999999</v>
@@ -6089,19 +6793,19 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="DL9">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="DM9">
         <v>1.17</v>
       </c>
       <c r="DN9">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="DO9">
         <v>1.18</v>
       </c>
       <c r="DP9">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="DQ9">
         <v>1.19</v>
@@ -6146,7 +6850,7 @@
         <v>1.24</v>
       </c>
       <c r="EE9">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="EF9">
         <v>1.23</v>
@@ -6185,7 +6889,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="ER9">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="ES9">
         <v>1.08</v>
@@ -6193,101 +6897,170 @@
       <c r="ET9">
         <v>1.07</v>
       </c>
-      <c r="EU9">
-        <v>1.06</v>
-      </c>
-      <c r="EV9">
-        <v>1.05</v>
-      </c>
-      <c r="EW9">
-        <v>1.04</v>
-      </c>
-      <c r="EX9">
-        <v>1.04</v>
-      </c>
-      <c r="EY9">
-        <v>1.04</v>
-      </c>
-      <c r="EZ9">
-        <v>1.03</v>
-      </c>
-      <c r="FA9">
-        <v>1.03</v>
-      </c>
-      <c r="FB9">
-        <v>1.03</v>
-      </c>
-      <c r="FC9">
-        <v>1.03</v>
-      </c>
-      <c r="FD9">
-        <v>1.03</v>
-      </c>
-      <c r="FE9">
-        <v>1.02</v>
-      </c>
-      <c r="FF9">
-        <v>1.02</v>
-      </c>
-      <c r="FG9">
-        <v>1.02</v>
-      </c>
-      <c r="FH9">
-        <v>1.01</v>
-      </c>
-      <c r="FI9">
-        <v>1.01</v>
-      </c>
-      <c r="FJ9">
-        <v>1.01</v>
-      </c>
-      <c r="FK9">
-        <v>1.01</v>
-      </c>
-      <c r="FL9">
-        <v>1.01</v>
-      </c>
-      <c r="FM9">
-        <v>1.01</v>
-      </c>
-      <c r="FN9">
-        <v>1.01</v>
-      </c>
-      <c r="FO9">
-        <v>1.01</v>
-      </c>
-      <c r="FP9">
-        <v>1.01</v>
-      </c>
-      <c r="FQ9">
-        <v>1.02</v>
-      </c>
-      <c r="FR9">
-        <v>1.02</v>
-      </c>
-      <c r="FS9">
-        <v>1.03</v>
-      </c>
-      <c r="FT9">
-        <v>1.04</v>
-      </c>
-      <c r="FU9">
-        <v>1.06</v>
-      </c>
-      <c r="FV9">
-        <v>1.08</v>
-      </c>
-      <c r="FW9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="FX9">
-        <v>1.06</v>
-      </c>
-      <c r="FY9">
-        <v>1.06</v>
-      </c>
-      <c r="FZ9">
-        <v>1</v>
+      <c r="EU9" t="s">
+        <v>213</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>213</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>213</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>213</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>213</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FR9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FV9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FX9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>213</v>
+      </c>
+      <c r="FZ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GA9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GB9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GC9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GD9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GE9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GF9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GG9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GH9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GM9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GN9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GQ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GR9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GT9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GV9" t="s">
+        <v>213</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
+++ b/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D993D0-4BA4-43CB-A488-F7A0AA44AED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6560F9D-9EB4-4AE3-B30B-9FFF2EE73C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2650" windowWidth="30500" windowHeight="16810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="770" yWindow="8580" windowWidth="28800" windowHeight="11530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numarul de reproductie RNumarul" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Data</t>
   </si>
@@ -661,7 +661,37 @@
     <t>19 Sept.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>20 Sept.</t>
+  </si>
+  <si>
+    <t>21 Sept.</t>
+  </si>
+  <si>
+    <t>22 Sept.</t>
+  </si>
+  <si>
+    <t>23 Sept.</t>
+  </si>
+  <si>
+    <t>24 Sept.</t>
+  </si>
+  <si>
+    <t>25 Sept.</t>
+  </si>
+  <si>
+    <t>26 Sept.</t>
+  </si>
+  <si>
+    <t>27 Sept.</t>
+  </si>
+  <si>
+    <t>28 Sept.</t>
+  </si>
+  <si>
+    <t>29 Sept.</t>
+  </si>
+  <si>
+    <t>30 Sept.</t>
   </si>
 </sst>
 </file>
@@ -1502,15 +1532,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GW9"/>
+  <dimension ref="A1:HH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FS1" workbookViewId="0">
-      <selection sqref="A1:GW9"/>
+    <sheetView tabSelected="1" topLeftCell="GF1" workbookViewId="0">
+      <selection activeCell="HD18" sqref="HD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +2156,41 @@
       <c r="GW1" t="s">
         <v>212</v>
       </c>
+      <c r="GX1" t="s">
+        <v>213</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>214</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="2" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2743,31 +2806,64 @@
       <c r="GW2">
         <v>204</v>
       </c>
+      <c r="GX2">
+        <v>205</v>
+      </c>
+      <c r="GY2">
+        <v>206</v>
+      </c>
+      <c r="GZ2">
+        <v>207</v>
+      </c>
+      <c r="HA2">
+        <v>208</v>
+      </c>
+      <c r="HB2">
+        <v>209</v>
+      </c>
+      <c r="HC2">
+        <v>210</v>
+      </c>
+      <c r="HD2">
+        <v>211</v>
+      </c>
+      <c r="HE2">
+        <v>212</v>
+      </c>
+      <c r="HF2">
+        <v>213</v>
+      </c>
+      <c r="HG2">
+        <v>214</v>
+      </c>
+      <c r="HH2">
+        <v>215</v>
+      </c>
     </row>
-    <row r="3" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="C3">
         <v>1.86</v>
       </c>
       <c r="D3">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="E3">
+        <v>1.83</v>
+      </c>
+      <c r="F3">
         <v>1.82</v>
       </c>
-      <c r="F3">
-        <v>1.81</v>
-      </c>
       <c r="G3">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I3">
         <v>1.75</v>
@@ -2791,7 +2887,7 @@
         <v>1.61</v>
       </c>
       <c r="P3">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q3">
         <v>1.58</v>
@@ -2947,7 +3043,7 @@
         <v>0.9</v>
       </c>
       <c r="BP3">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BQ3">
         <v>0.87</v>
@@ -2965,7 +3061,7 @@
         <v>0.85</v>
       </c>
       <c r="BV3">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="BW3">
         <v>0.86</v>
@@ -2983,7 +3079,7 @@
         <v>0.91</v>
       </c>
       <c r="CB3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="CC3">
         <v>0.94</v>
@@ -3022,7 +3118,7 @@
         <v>1.07</v>
       </c>
       <c r="CO3">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="CP3">
         <v>1.1000000000000001</v>
@@ -3043,7 +3139,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="CV3">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="CW3">
         <v>1.17</v>
@@ -3142,7 +3238,7 @@
         <v>1.22</v>
       </c>
       <c r="EC3">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="ED3">
         <v>1.21</v>
@@ -3151,7 +3247,7 @@
         <v>1.21</v>
       </c>
       <c r="EF3">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="EG3">
         <v>1.2</v>
@@ -3208,7 +3304,7 @@
         <v>1.02</v>
       </c>
       <c r="EY3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="EZ3">
         <v>1.01</v>
@@ -3253,7 +3349,7 @@
         <v>0.98</v>
       </c>
       <c r="FN3">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FO3">
         <v>0.99</v>
@@ -3265,7 +3361,7 @@
         <v>0.99</v>
       </c>
       <c r="FR3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FS3">
         <v>1</v>
@@ -3292,87 +3388,120 @@
         <v>1.01</v>
       </c>
       <c r="GA3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GB3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GC3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GD3">
         <v>1.02</v>
       </c>
       <c r="GE3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GF3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GG3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GH3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GI3">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="GJ3">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="GK3">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="GL3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="GM3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="GN3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="GO3">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="GP3">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="GQ3">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="GR3">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="GS3">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="GT3">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>1.08</v>
+      </c>
+      <c r="GX3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GY3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GZ3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HA3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HB3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HC3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HD3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HE3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HF3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HG3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HH3">
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>1.77</v>
+      </c>
+      <c r="C4">
         <v>1.76</v>
       </c>
-      <c r="C4">
-        <v>1.75</v>
-      </c>
       <c r="D4">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E4">
         <v>1.73</v>
@@ -3387,7 +3516,7 @@
         <v>1.71</v>
       </c>
       <c r="I4">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J4">
         <v>1.67</v>
@@ -3396,7 +3525,7 @@
         <v>1.65</v>
       </c>
       <c r="L4">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M4">
         <v>1.61</v>
@@ -3405,13 +3534,13 @@
         <v>1.59</v>
       </c>
       <c r="O4">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
         <v>1.56</v>
       </c>
       <c r="Q4">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R4">
         <v>1.53</v>
@@ -3432,7 +3561,7 @@
         <v>1.43</v>
       </c>
       <c r="X4">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Y4">
         <v>1.36</v>
@@ -3471,7 +3600,7 @@
         <v>1.07</v>
       </c>
       <c r="AK4">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AL4">
         <v>1.04</v>
@@ -3540,7 +3669,7 @@
         <v>0.94</v>
       </c>
       <c r="BH4">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BI4">
         <v>0.93</v>
@@ -3594,7 +3723,7 @@
         <v>0.87</v>
       </c>
       <c r="BZ4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="CA4">
         <v>0.9</v>
@@ -3603,7 +3732,7 @@
         <v>0.91</v>
       </c>
       <c r="CC4">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="CD4">
         <v>0.94</v>
@@ -3612,7 +3741,7 @@
         <v>0.95</v>
       </c>
       <c r="CF4">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="CG4">
         <v>0.98</v>
@@ -3642,7 +3771,7 @@
         <v>1.07</v>
       </c>
       <c r="CP4">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="CQ4">
         <v>1.1000000000000001</v>
@@ -3675,7 +3804,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="DA4">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DB4">
         <v>1.1499999999999999</v>
@@ -3714,7 +3843,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="DN4">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="DO4">
         <v>1.1299999999999999</v>
@@ -3747,7 +3876,7 @@
         <v>1.2</v>
       </c>
       <c r="DY4">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="DZ4">
         <v>1.21</v>
@@ -3759,7 +3888,7 @@
         <v>1.21</v>
       </c>
       <c r="EC4">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="ED4">
         <v>1.2</v>
@@ -3831,7 +3960,7 @@
         <v>1.01</v>
       </c>
       <c r="FA4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -3855,7 +3984,7 @@
         <v>0.99</v>
       </c>
       <c r="FI4">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FJ4">
         <v>0.98</v>
@@ -3879,7 +4008,7 @@
         <v>0.98</v>
       </c>
       <c r="FQ4">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FR4">
         <v>0.99</v>
@@ -3888,7 +4017,7 @@
         <v>0.99</v>
       </c>
       <c r="FT4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FU4">
         <v>1</v>
@@ -3903,13 +4032,13 @@
         <v>1</v>
       </c>
       <c r="FY4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FZ4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GA4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GB4">
         <v>1.01</v>
@@ -3918,84 +4047,117 @@
         <v>1.01</v>
       </c>
       <c r="GD4">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GE4">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GF4">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GG4">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GH4">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GI4">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GJ4">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GK4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="GL4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="GM4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="GN4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="GO4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="GP4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="GQ4">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="GR4">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="GS4">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="GU4">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="GV4">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="GW4">
-        <v>0.99</v>
+        <v>1.07</v>
+      </c>
+      <c r="GX4">
+        <v>1.08</v>
+      </c>
+      <c r="GY4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GZ4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HA4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HB4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HC4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HD4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HE4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HF4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HG4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HH4">
+        <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1.99</v>
+      </c>
+      <c r="C5">
         <v>1.97</v>
-      </c>
-      <c r="C5">
-        <v>1.95</v>
       </c>
       <c r="D5">
         <v>1.94</v>
       </c>
       <c r="E5">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F5">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G5">
         <v>1.86</v>
@@ -4004,10 +4166,10 @@
         <v>1.84</v>
       </c>
       <c r="I5">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J5">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="K5">
         <v>1.76</v>
@@ -4019,7 +4181,7 @@
         <v>1.7</v>
       </c>
       <c r="N5">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O5">
         <v>1.65</v>
@@ -4040,7 +4202,7 @@
         <v>1.56</v>
       </c>
       <c r="U5">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V5">
         <v>1.51</v>
@@ -4055,13 +4217,13 @@
         <v>1.4</v>
       </c>
       <c r="Z5">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AA5">
         <v>1.33</v>
       </c>
       <c r="AB5">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AC5">
         <v>1.26</v>
@@ -4079,7 +4241,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AH5">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AI5">
         <v>1.1100000000000001</v>
@@ -4118,7 +4280,7 @@
         <v>0.99</v>
       </c>
       <c r="AU5">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AV5">
         <v>0.98</v>
@@ -4130,7 +4292,7 @@
         <v>0.98</v>
       </c>
       <c r="AY5">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="AZ5">
         <v>0.97</v>
@@ -4163,16 +4325,16 @@
         <v>0.96</v>
       </c>
       <c r="BJ5">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="BK5">
         <v>0.95</v>
       </c>
       <c r="BL5">
+        <v>0.95</v>
+      </c>
+      <c r="BM5">
         <v>0.94</v>
-      </c>
-      <c r="BM5">
-        <v>0.93</v>
       </c>
       <c r="BN5">
         <v>0.92</v>
@@ -4220,7 +4382,7 @@
         <v>0.94</v>
       </c>
       <c r="CC5">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="CD5">
         <v>0.97</v>
@@ -4253,7 +4415,7 @@
         <v>1.07</v>
       </c>
       <c r="CN5">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="CO5">
         <v>1.1000000000000001</v>
@@ -4262,7 +4424,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CQ5">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CR5">
         <v>1.1499999999999999</v>
@@ -4274,13 +4436,13 @@
         <v>1.17</v>
       </c>
       <c r="CU5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="CV5">
         <v>1.18</v>
       </c>
       <c r="CW5">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="CX5">
         <v>1.19</v>
@@ -4319,7 +4481,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="DJ5">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="DK5">
         <v>1.1399999999999999</v>
@@ -4349,7 +4511,7 @@
         <v>1.19</v>
       </c>
       <c r="DT5">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="DU5">
         <v>1.2</v>
@@ -4376,7 +4538,7 @@
         <v>1.23</v>
       </c>
       <c r="EC5">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="ED5">
         <v>1.22</v>
@@ -4430,7 +4592,7 @@
         <v>1.06</v>
       </c>
       <c r="EU5">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="EV5">
         <v>1.04</v>
@@ -4493,7 +4655,7 @@
         <v>0.99</v>
       </c>
       <c r="FP5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
         <v>1</v>
@@ -4502,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="FS5">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FT5">
         <v>1.01</v>
@@ -4517,7 +4679,7 @@
         <v>1.01</v>
       </c>
       <c r="FX5">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="FY5">
         <v>1.02</v>
@@ -4532,70 +4694,103 @@
         <v>1.02</v>
       </c>
       <c r="GC5">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GD5">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GE5">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GF5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GG5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GH5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GI5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GJ5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GK5">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="GL5">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="GM5">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="GN5">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="GO5">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="GP5">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="GQ5">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="GR5">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="GS5">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="GT5">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="GU5">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="GV5">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="GW5">
-        <v>1.02</v>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GX5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GY5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GZ5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HA5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HB5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HC5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HD5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HE5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HF5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HG5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HH5">
+        <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4603,25 +4798,25 @@
         <v>1.63</v>
       </c>
       <c r="C6">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="D6">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="E6">
         <v>1.62</v>
       </c>
       <c r="F6">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G6">
         <v>1.62</v>
       </c>
       <c r="H6">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I6">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J6">
         <v>1.6</v>
@@ -4633,7 +4828,7 @@
         <v>1.57</v>
       </c>
       <c r="M6">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="N6">
         <v>1.53</v>
@@ -4645,13 +4840,13 @@
         <v>1.51</v>
       </c>
       <c r="Q6">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R6">
         <v>1.48</v>
       </c>
       <c r="S6">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="T6">
         <v>1.46</v>
@@ -4678,7 +4873,7 @@
         <v>1.27</v>
       </c>
       <c r="AB6">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AC6">
         <v>1.21</v>
@@ -4687,7 +4882,7 @@
         <v>1.18</v>
       </c>
       <c r="AE6">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AF6">
         <v>1.1299999999999999</v>
@@ -4705,7 +4900,7 @@
         <v>1.05</v>
       </c>
       <c r="AK6">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AL6">
         <v>1.02</v>
@@ -4726,16 +4921,16 @@
         <v>0.97</v>
       </c>
       <c r="AR6">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="AS6">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AT6">
         <v>0.95</v>
       </c>
       <c r="AU6">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="AV6">
         <v>0.94</v>
@@ -4777,7 +4972,7 @@
         <v>0.92</v>
       </c>
       <c r="BI6">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BJ6">
         <v>0.91</v>
@@ -4828,7 +5023,7 @@
         <v>0.85</v>
       </c>
       <c r="BZ6">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="CA6">
         <v>0.88</v>
@@ -4837,10 +5032,10 @@
         <v>0.89</v>
       </c>
       <c r="CC6">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="CD6">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="CE6">
         <v>0.93</v>
@@ -4867,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="CM6">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="CN6">
         <v>1.03</v>
@@ -4903,10 +5098,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="CY6">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CZ6">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="DA6">
         <v>1.1299999999999999</v>
@@ -4951,7 +5146,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DO6">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="DP6">
         <v>1.1200000000000001</v>
@@ -4987,10 +5182,10 @@
         <v>1.19</v>
       </c>
       <c r="EA6">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="EB6">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="EC6">
         <v>1.19</v>
@@ -5122,7 +5317,7 @@
         <v>0.98</v>
       </c>
       <c r="FT6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FU6">
         <v>0.99</v>
@@ -5134,16 +5329,16 @@
         <v>0.99</v>
       </c>
       <c r="FX6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="GB6">
         <v>1</v>
@@ -5152,67 +5347,100 @@
         <v>1</v>
       </c>
       <c r="GD6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GE6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GF6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GG6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GH6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GI6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GJ6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GK6">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="GL6">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="GM6">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="GN6">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="GO6">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="GP6">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="GQ6">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="GR6">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="GT6">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="GU6">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="GV6">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="GW6">
-        <v>0.96</v>
+        <v>1.06</v>
+      </c>
+      <c r="GX6">
+        <v>1.07</v>
+      </c>
+      <c r="GY6">
+        <v>1.07</v>
+      </c>
+      <c r="GZ6">
+        <v>1.08</v>
+      </c>
+      <c r="HA6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HB6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HC6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HD6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HE6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HF6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HG6">
+        <v>1.08</v>
+      </c>
+      <c r="HH6">
+        <v>1.06</v>
       </c>
     </row>
-    <row r="7" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5223,37 +5451,37 @@
         <v>2.12</v>
       </c>
       <c r="D7">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="E7">
-        <v>2.0299999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G7">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H7">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I7">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J7">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K7">
         <v>1.84</v>
       </c>
       <c r="L7">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="N7">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O7">
         <v>1.71</v>
@@ -5262,13 +5490,13 @@
         <v>1.69</v>
       </c>
       <c r="Q7">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R7">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S7">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T7">
         <v>1.6</v>
@@ -5277,7 +5505,7 @@
         <v>1.57</v>
       </c>
       <c r="V7">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W7">
         <v>1.51</v>
@@ -5286,7 +5514,7 @@
         <v>1.47</v>
       </c>
       <c r="Y7">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Z7">
         <v>1.4</v>
@@ -5313,7 +5541,7 @@
         <v>1.18</v>
       </c>
       <c r="AH7">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AI7">
         <v>1.1299999999999999</v>
@@ -5358,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AX7">
         <v>0.99</v>
@@ -5376,7 +5604,7 @@
         <v>0.99</v>
       </c>
       <c r="BC7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="BD7">
         <v>0.98</v>
@@ -5394,7 +5622,7 @@
         <v>0.98</v>
       </c>
       <c r="BI7">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="BJ7">
         <v>0.97</v>
@@ -5424,7 +5652,7 @@
         <v>0.89</v>
       </c>
       <c r="BS7">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BT7">
         <v>0.88</v>
@@ -5454,13 +5682,13 @@
         <v>0.96</v>
       </c>
       <c r="CC7">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="CD7">
         <v>0.99</v>
       </c>
       <c r="CE7">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="CF7">
         <v>1.02</v>
@@ -5499,7 +5727,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="CR7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="CS7">
         <v>1.18</v>
@@ -5526,7 +5754,7 @@
         <v>1.21</v>
       </c>
       <c r="DA7">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="DB7">
         <v>1.2</v>
@@ -5541,7 +5769,7 @@
         <v>1.17</v>
       </c>
       <c r="DF7">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="DG7">
         <v>1.1599999999999999</v>
@@ -5556,7 +5784,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DK7">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DL7">
         <v>1.1599999999999999</v>
@@ -5577,7 +5805,7 @@
         <v>1.19</v>
       </c>
       <c r="DR7">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="DS7">
         <v>1.2</v>
@@ -5664,7 +5892,7 @@
         <v>1.07</v>
       </c>
       <c r="EU7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="EV7">
         <v>1.04</v>
@@ -5706,7 +5934,7 @@
         <v>1.01</v>
       </c>
       <c r="FI7">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FJ7">
         <v>1</v>
@@ -5727,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="FP7">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FQ7">
         <v>1.01</v>
@@ -5751,10 +5979,10 @@
         <v>1.02</v>
       </c>
       <c r="FX7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="FY7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="FZ7">
         <v>1.03</v>
@@ -5766,81 +5994,114 @@
         <v>1.03</v>
       </c>
       <c r="GC7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GD7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GE7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GF7">
         <v>1.04</v>
       </c>
       <c r="GG7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GH7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GI7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GJ7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GK7">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="GL7">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="GM7">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="GN7">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="GO7">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="GP7">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GQ7">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GR7">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GS7">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GT7">
-        <v>1.04</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GU7">
-        <v>1.03</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GV7">
-        <v>1.03</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GW7">
-        <v>1.04</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GX7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GY7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="GZ7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HA7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HB7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HC7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HD7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HE7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HF7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HG7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HH7">
+        <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="C8">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="D8">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="E8">
         <v>1.58</v>
@@ -5849,10 +6110,10 @@
         <v>1.6</v>
       </c>
       <c r="G8">
+        <v>1.59</v>
+      </c>
+      <c r="H8">
         <v>1.58</v>
-      </c>
-      <c r="H8">
-        <v>1.59</v>
       </c>
       <c r="I8">
         <v>1.58</v>
@@ -5861,19 +6122,19 @@
         <v>1.57</v>
       </c>
       <c r="K8">
+        <v>1.56</v>
+      </c>
+      <c r="L8">
         <v>1.55</v>
       </c>
-      <c r="L8">
-        <v>1.54</v>
-      </c>
       <c r="M8">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="N8">
         <v>1.51</v>
       </c>
       <c r="O8">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P8">
         <v>1.49</v>
@@ -5891,7 +6152,7 @@
         <v>1.45</v>
       </c>
       <c r="U8">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="V8">
         <v>1.41</v>
@@ -5900,7 +6161,7 @@
         <v>1.38</v>
       </c>
       <c r="X8">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Y8">
         <v>1.32</v>
@@ -5909,7 +6170,7 @@
         <v>1.29</v>
       </c>
       <c r="AA8">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AB8">
         <v>1.23</v>
@@ -5918,13 +6179,13 @@
         <v>1.2</v>
       </c>
       <c r="AD8">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AE8">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AF8">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AG8">
         <v>1.1000000000000001</v>
@@ -5936,7 +6197,7 @@
         <v>1.06</v>
       </c>
       <c r="AJ8">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AK8">
         <v>1.03</v>
@@ -5945,7 +6206,7 @@
         <v>1.02</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AN8">
         <v>0.99</v>
@@ -5954,10 +6215,10 @@
         <v>0.98</v>
       </c>
       <c r="AP8">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="AQ8">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="AR8">
         <v>0.96</v>
@@ -5990,13 +6251,13 @@
         <v>0.93</v>
       </c>
       <c r="BB8">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BC8">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BD8">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BE8">
         <v>0.92</v>
@@ -6005,7 +6266,7 @@
         <v>0.92</v>
       </c>
       <c r="BG8">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BH8">
         <v>0.91</v>
@@ -6023,10 +6284,10 @@
         <v>0.9</v>
       </c>
       <c r="BM8">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BN8">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BO8">
         <v>0.86</v>
@@ -6053,7 +6314,7 @@
         <v>0.82</v>
       </c>
       <c r="BW8">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="BX8">
         <v>0.84</v>
@@ -6062,7 +6323,7 @@
         <v>0.85</v>
       </c>
       <c r="BZ8">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="CA8">
         <v>0.87</v>
@@ -6071,7 +6332,7 @@
         <v>0.88</v>
       </c>
       <c r="CC8">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="CD8">
         <v>0.91</v>
@@ -6080,7 +6341,7 @@
         <v>0.92</v>
       </c>
       <c r="CF8">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="CG8">
         <v>0.95</v>
@@ -6089,10 +6350,10 @@
         <v>0.96</v>
       </c>
       <c r="CI8">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="CJ8">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="CK8">
         <v>0.98</v>
@@ -6143,13 +6404,13 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="DA8">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DB8">
         <v>1.1200000000000001</v>
       </c>
       <c r="DC8">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="DD8">
         <v>1.1100000000000001</v>
@@ -6164,13 +6425,13 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="DH8">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="DI8">
         <v>1.08</v>
       </c>
       <c r="DJ8">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="DK8">
         <v>1.0900000000000001</v>
@@ -6188,7 +6449,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DP8">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="DQ8">
         <v>1.1200000000000001</v>
@@ -6215,7 +6476,7 @@
         <v>1.18</v>
       </c>
       <c r="DY8">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="DZ8">
         <v>1.19</v>
@@ -6227,7 +6488,7 @@
         <v>1.19</v>
       </c>
       <c r="EC8">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="ED8">
         <v>1.18</v>
@@ -6272,7 +6533,7 @@
         <v>1.07</v>
       </c>
       <c r="ER8">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="ES8">
         <v>1.04</v>
@@ -6287,7 +6548,7 @@
         <v>1.01</v>
       </c>
       <c r="EW8">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="EX8">
         <v>1</v>
@@ -6359,7 +6620,7 @@
         <v>0.98</v>
       </c>
       <c r="FU8">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FV8">
         <v>0.99</v>
@@ -6374,13 +6635,13 @@
         <v>0.99</v>
       </c>
       <c r="FZ8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="GA8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="GB8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="GC8">
         <v>1</v>
@@ -6389,105 +6650,138 @@
         <v>1</v>
       </c>
       <c r="GE8">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GF8">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GG8">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GH8">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="GI8">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="GJ8">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="GK8">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="GL8">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="GM8">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="GN8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="GO8">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="GP8">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="GQ8">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="GR8">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="GS8">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="GT8">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="GU8">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="GV8">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="GW8">
-        <v>0.95</v>
+        <v>1.06</v>
+      </c>
+      <c r="GX8">
+        <v>1.06</v>
+      </c>
+      <c r="GY8">
+        <v>1.07</v>
+      </c>
+      <c r="GZ8">
+        <v>1.08</v>
+      </c>
+      <c r="HA8">
+        <v>1.08</v>
+      </c>
+      <c r="HB8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HC8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HD8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HE8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HF8">
+        <v>1.08</v>
+      </c>
+      <c r="HG8">
+        <v>1.07</v>
+      </c>
+      <c r="HH8">
+        <v>1.05</v>
       </c>
     </row>
-    <row r="9" spans="1:205" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2400000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="C9">
         <v>2.16</v>
       </c>
       <c r="D9">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="E9">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="F9">
-        <v>2.04</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H9">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I9">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J9">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="K9">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="L9">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="M9">
         <v>1.79</v>
       </c>
       <c r="N9">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
         <v>1.73</v>
@@ -6505,22 +6799,22 @@
         <v>1.64</v>
       </c>
       <c r="T9">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U9">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V9">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W9">
         <v>1.53</v>
       </c>
       <c r="X9">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Y9">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Z9">
         <v>1.4</v>
@@ -6532,19 +6826,19 @@
         <v>1.33</v>
       </c>
       <c r="AC9">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AD9">
         <v>1.26</v>
       </c>
       <c r="AE9">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AF9">
         <v>1.21</v>
       </c>
       <c r="AG9">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AH9">
         <v>1.1599999999999999</v>
@@ -6586,7 +6880,7 @@
         <v>1.01</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AV9">
         <v>1</v>
@@ -6601,13 +6895,13 @@
         <v>1</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="BA9">
         <v>0.99</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="BC9">
         <v>0.99</v>
@@ -6619,10 +6913,10 @@
         <v>0.99</v>
       </c>
       <c r="BF9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="BG9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="BH9">
         <v>0.98</v>
@@ -6661,13 +6955,13 @@
         <v>0.89</v>
       </c>
       <c r="BT9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BU9">
         <v>0.89</v>
       </c>
       <c r="BV9">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="BW9">
         <v>0.91</v>
@@ -6688,13 +6982,13 @@
         <v>0.97</v>
       </c>
       <c r="CC9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CD9">
         <v>1</v>
       </c>
       <c r="CE9">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CF9">
         <v>1.03</v>
@@ -6712,7 +7006,7 @@
         <v>1.07</v>
       </c>
       <c r="CK9">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="CL9">
         <v>1.0900000000000001</v>
@@ -6721,10 +7015,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CN9">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="CO9">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CP9">
         <v>1.1499999999999999</v>
@@ -6778,7 +7072,7 @@
         <v>1.17</v>
       </c>
       <c r="DG9">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="DH9">
         <v>1.1599999999999999</v>
@@ -6805,7 +7099,7 @@
         <v>1.18</v>
       </c>
       <c r="DP9">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="DQ9">
         <v>1.19</v>
@@ -6817,7 +7111,7 @@
         <v>1.21</v>
       </c>
       <c r="DT9">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="DU9">
         <v>1.22</v>
@@ -6868,7 +7162,7 @@
         <v>1.21</v>
       </c>
       <c r="EK9">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="EL9">
         <v>1.18</v>
@@ -6889,7 +7183,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="ER9">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="ES9">
         <v>1.08</v>
@@ -6897,170 +7191,203 @@
       <c r="ET9">
         <v>1.07</v>
       </c>
-      <c r="EU9" t="s">
-        <v>213</v>
-      </c>
-      <c r="EV9" t="s">
-        <v>213</v>
-      </c>
-      <c r="EW9" t="s">
-        <v>213</v>
-      </c>
-      <c r="EX9" t="s">
-        <v>213</v>
-      </c>
-      <c r="EY9" t="s">
-        <v>213</v>
-      </c>
-      <c r="EZ9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FA9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FB9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FC9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FD9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FE9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FF9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FG9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FH9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FI9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FJ9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FK9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FN9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FP9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FQ9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FR9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FS9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FT9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FU9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FV9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FW9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FX9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FY9" t="s">
-        <v>213</v>
-      </c>
-      <c r="FZ9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GB9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GC9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GD9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GE9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GG9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GH9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GI9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GJ9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GK9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GL9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GM9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GN9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GO9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GP9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GQ9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GR9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GS9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GT9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GU9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GV9" t="s">
-        <v>213</v>
-      </c>
-      <c r="GW9" t="s">
-        <v>213</v>
+      <c r="EU9">
+        <v>1.06</v>
+      </c>
+      <c r="EV9">
+        <v>1.05</v>
+      </c>
+      <c r="EW9">
+        <v>1.04</v>
+      </c>
+      <c r="EX9">
+        <v>1.03</v>
+      </c>
+      <c r="EY9">
+        <v>1.03</v>
+      </c>
+      <c r="EZ9">
+        <v>1.03</v>
+      </c>
+      <c r="FA9">
+        <v>1.03</v>
+      </c>
+      <c r="FB9">
+        <v>1.03</v>
+      </c>
+      <c r="FC9">
+        <v>1.03</v>
+      </c>
+      <c r="FD9">
+        <v>1.02</v>
+      </c>
+      <c r="FE9">
+        <v>1.02</v>
+      </c>
+      <c r="FF9">
+        <v>1.02</v>
+      </c>
+      <c r="FG9">
+        <v>1.01</v>
+      </c>
+      <c r="FH9">
+        <v>1.01</v>
+      </c>
+      <c r="FI9">
+        <v>1.01</v>
+      </c>
+      <c r="FJ9">
+        <v>1.01</v>
+      </c>
+      <c r="FK9">
+        <v>1</v>
+      </c>
+      <c r="FL9">
+        <v>1</v>
+      </c>
+      <c r="FM9">
+        <v>1</v>
+      </c>
+      <c r="FN9">
+        <v>1</v>
+      </c>
+      <c r="FO9">
+        <v>1.01</v>
+      </c>
+      <c r="FP9">
+        <v>1.01</v>
+      </c>
+      <c r="FQ9">
+        <v>1.01</v>
+      </c>
+      <c r="FR9">
+        <v>1.01</v>
+      </c>
+      <c r="FS9">
+        <v>1.02</v>
+      </c>
+      <c r="FT9">
+        <v>1.02</v>
+      </c>
+      <c r="FU9">
+        <v>1.02</v>
+      </c>
+      <c r="FV9">
+        <v>1.02</v>
+      </c>
+      <c r="FW9">
+        <v>1.03</v>
+      </c>
+      <c r="FX9">
+        <v>1.03</v>
+      </c>
+      <c r="FY9">
+        <v>1.03</v>
+      </c>
+      <c r="FZ9">
+        <v>1.03</v>
+      </c>
+      <c r="GA9">
+        <v>1.03</v>
+      </c>
+      <c r="GB9">
+        <v>1.04</v>
+      </c>
+      <c r="GC9">
+        <v>1.04</v>
+      </c>
+      <c r="GD9">
+        <v>1.04</v>
+      </c>
+      <c r="GE9">
+        <v>1.04</v>
+      </c>
+      <c r="GF9">
+        <v>1.05</v>
+      </c>
+      <c r="GG9">
+        <v>1.05</v>
+      </c>
+      <c r="GH9">
+        <v>1.05</v>
+      </c>
+      <c r="GI9">
+        <v>1.06</v>
+      </c>
+      <c r="GJ9">
+        <v>1.06</v>
+      </c>
+      <c r="GK9">
+        <v>1.06</v>
+      </c>
+      <c r="GL9">
+        <v>1.06</v>
+      </c>
+      <c r="GM9">
+        <v>1.07</v>
+      </c>
+      <c r="GN9">
+        <v>1.07</v>
+      </c>
+      <c r="GO9">
+        <v>1.08</v>
+      </c>
+      <c r="GP9">
+        <v>1.08</v>
+      </c>
+      <c r="GQ9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GR9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GS9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GT9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GU9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="GV9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GW9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GX9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="GY9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="GZ9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HA9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HB9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HC9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HD9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HE9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HF9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HG9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HH9">
+        <v>1.1399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
+++ b/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6560F9D-9EB4-4AE3-B30B-9FFF2EE73C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A294934D-B3C1-40D1-97FE-1E2A821B2A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="8580" windowWidth="28800" windowHeight="11530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5720" yWindow="950" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numarul de reproductie RNumarul" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Data</t>
   </si>
@@ -692,6 +692,48 @@
   </si>
   <si>
     <t>30 Sept.</t>
+  </si>
+  <si>
+    <t>1 Oct.</t>
+  </si>
+  <si>
+    <t>2 Oct.</t>
+  </si>
+  <si>
+    <t>3 Oct.</t>
+  </si>
+  <si>
+    <t>4 Oct.</t>
+  </si>
+  <si>
+    <t>5 Oct.</t>
+  </si>
+  <si>
+    <t>6 Oct.</t>
+  </si>
+  <si>
+    <t>7 Oct.</t>
+  </si>
+  <si>
+    <t>8 Oct.</t>
+  </si>
+  <si>
+    <t>9 Oct.</t>
+  </si>
+  <si>
+    <t>10 Oct.</t>
+  </si>
+  <si>
+    <t>11 Oct.</t>
+  </si>
+  <si>
+    <t>12 Oct.</t>
+  </si>
+  <si>
+    <t>13 Oct.</t>
+  </si>
+  <si>
+    <t>14 Oct.</t>
   </si>
 </sst>
 </file>
@@ -1532,15 +1574,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HH9"/>
+  <dimension ref="A1:HV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GF1" workbookViewId="0">
-      <selection activeCell="HD18" sqref="HD18"/>
+    <sheetView tabSelected="1" topLeftCell="GT1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2189,8 +2231,50 @@
       <c r="HH1" t="s">
         <v>223</v>
       </c>
+      <c r="HI1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>233</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>234</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>235</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>236</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="2" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2839,8 +2923,50 @@
       <c r="HH2">
         <v>215</v>
       </c>
+      <c r="HI2">
+        <v>216</v>
+      </c>
+      <c r="HJ2">
+        <v>217</v>
+      </c>
+      <c r="HK2">
+        <v>218</v>
+      </c>
+      <c r="HL2">
+        <v>219</v>
+      </c>
+      <c r="HM2">
+        <v>220</v>
+      </c>
+      <c r="HN2">
+        <v>221</v>
+      </c>
+      <c r="HO2">
+        <v>222</v>
+      </c>
+      <c r="HP2">
+        <v>223</v>
+      </c>
+      <c r="HQ2">
+        <v>224</v>
+      </c>
+      <c r="HR2">
+        <v>225</v>
+      </c>
+      <c r="HS2">
+        <v>226</v>
+      </c>
+      <c r="HT2">
+        <v>227</v>
+      </c>
+      <c r="HU2">
+        <v>228</v>
+      </c>
+      <c r="HV2">
+        <v>229</v>
+      </c>
     </row>
-    <row r="3" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2851,28 +2977,28 @@
         <v>1.86</v>
       </c>
       <c r="D3">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="E3">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="F3">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G3">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H3">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="I3">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J3">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="K3">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="L3">
         <v>1.68</v>
@@ -2881,13 +3007,13 @@
         <v>1.66</v>
       </c>
       <c r="N3">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O3">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q3">
         <v>1.58</v>
@@ -2926,7 +3052,7 @@
         <v>1.28</v>
       </c>
       <c r="AC3">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AD3">
         <v>1.22</v>
@@ -3043,7 +3169,7 @@
         <v>0.9</v>
       </c>
       <c r="BP3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BQ3">
         <v>0.87</v>
@@ -3118,7 +3244,7 @@
         <v>1.07</v>
       </c>
       <c r="CO3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="CP3">
         <v>1.1000000000000001</v>
@@ -3139,7 +3265,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="CV3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="CW3">
         <v>1.17</v>
@@ -3238,7 +3364,7 @@
         <v>1.22</v>
       </c>
       <c r="EC3">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="ED3">
         <v>1.21</v>
@@ -3304,7 +3430,7 @@
         <v>1.02</v>
       </c>
       <c r="EY3">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="EZ3">
         <v>1.01</v>
@@ -3343,7 +3469,7 @@
         <v>0.99</v>
       </c>
       <c r="FL3">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FM3">
         <v>0.98</v>
@@ -3370,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="FU3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FV3">
         <v>1.01</v>
@@ -3385,7 +3511,7 @@
         <v>1.01</v>
       </c>
       <c r="FZ3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GA3">
         <v>1.02</v>
@@ -3397,7 +3523,7 @@
         <v>1.02</v>
       </c>
       <c r="GD3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GE3">
         <v>1.03</v>
@@ -3406,91 +3532,133 @@
         <v>1.03</v>
       </c>
       <c r="GG3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GH3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GI3">
         <v>1.04</v>
       </c>
       <c r="GJ3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GK3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GL3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GM3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GN3">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="GO3">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="GP3">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="GQ3">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GR3">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GS3">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GT3">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GU3">
-        <v>1.07</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GV3">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GW3">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GX3">
-        <v>1.0900000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="GY3">
-        <v>1.0900000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="GZ3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HA3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HB3">
+        <v>1.17</v>
+      </c>
+      <c r="HC3">
+        <v>1.18</v>
+      </c>
+      <c r="HD3">
+        <v>1.18</v>
+      </c>
+      <c r="HE3">
+        <v>1.19</v>
+      </c>
+      <c r="HF3">
+        <v>1.19</v>
+      </c>
+      <c r="HG3">
+        <v>1.19</v>
+      </c>
+      <c r="HH3">
+        <v>1.19</v>
+      </c>
+      <c r="HI3">
+        <v>1.18</v>
+      </c>
+      <c r="HJ3">
+        <v>1.18</v>
+      </c>
+      <c r="HK3">
+        <v>1.18</v>
+      </c>
+      <c r="HL3">
+        <v>1.18</v>
+      </c>
+      <c r="HM3">
+        <v>1.17</v>
+      </c>
+      <c r="HN3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HO3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HP3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HQ3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HR3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HS3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HT3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HU3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HV3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="HA3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HB3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HC3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HD3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HE3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HF3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HG3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HH3">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
-    <row r="4" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3498,25 +3666,25 @@
         <v>1.77</v>
       </c>
       <c r="C4">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="D4">
         <v>1.74</v>
       </c>
       <c r="E4">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F4">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G4">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H4">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="I4">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="J4">
         <v>1.67</v>
@@ -3525,7 +3693,7 @@
         <v>1.65</v>
       </c>
       <c r="L4">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="M4">
         <v>1.61</v>
@@ -3555,7 +3723,7 @@
         <v>1.48</v>
       </c>
       <c r="V4">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W4">
         <v>1.43</v>
@@ -3567,7 +3735,7 @@
         <v>1.36</v>
       </c>
       <c r="Z4">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AA4">
         <v>1.29</v>
@@ -3723,7 +3891,7 @@
         <v>0.87</v>
       </c>
       <c r="BZ4">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="CA4">
         <v>0.9</v>
@@ -3732,7 +3900,7 @@
         <v>0.91</v>
       </c>
       <c r="CC4">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="CD4">
         <v>0.94</v>
@@ -3771,7 +3939,7 @@
         <v>1.07</v>
       </c>
       <c r="CP4">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="CQ4">
         <v>1.1000000000000001</v>
@@ -3783,7 +3951,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="CT4">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CU4">
         <v>1.1399999999999999</v>
@@ -3804,7 +3972,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="DA4">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DB4">
         <v>1.1499999999999999</v>
@@ -3888,7 +4056,7 @@
         <v>1.21</v>
       </c>
       <c r="EC4">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="ED4">
         <v>1.2</v>
@@ -3897,7 +4065,7 @@
         <v>1.2</v>
       </c>
       <c r="EF4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="EG4">
         <v>1.19</v>
@@ -4029,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="FX4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FY4">
         <v>1.01</v>
@@ -4044,7 +4212,7 @@
         <v>1.01</v>
       </c>
       <c r="GC4">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GD4">
         <v>1.02</v>
@@ -4053,94 +4221,136 @@
         <v>1.02</v>
       </c>
       <c r="GF4">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GG4">
         <v>1.03</v>
       </c>
       <c r="GH4">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GI4">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GJ4">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GK4">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GL4">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GM4">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="GN4">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GO4">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="GP4">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GQ4">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="GR4">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GS4">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GT4">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GU4">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GV4">
-        <v>1.07</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GW4">
-        <v>1.07</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GX4">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GY4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="GZ4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HA4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HB4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HC4">
+        <v>1.17</v>
+      </c>
+      <c r="HD4">
+        <v>1.18</v>
+      </c>
+      <c r="HE4">
+        <v>1.18</v>
+      </c>
+      <c r="HF4">
+        <v>1.18</v>
+      </c>
+      <c r="HG4">
+        <v>1.18</v>
+      </c>
+      <c r="HH4">
+        <v>1.18</v>
+      </c>
+      <c r="HI4">
+        <v>1.18</v>
+      </c>
+      <c r="HJ4">
+        <v>1.18</v>
+      </c>
+      <c r="HK4">
+        <v>1.17</v>
+      </c>
+      <c r="HL4">
+        <v>1.17</v>
+      </c>
+      <c r="HM4">
+        <v>1.17</v>
+      </c>
+      <c r="HN4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HO4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HP4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HQ4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HR4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HS4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HT4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HU4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HV4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="GZ4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HA4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HB4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HC4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HD4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HE4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HF4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HG4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HH4">
-        <v>1.08</v>
-      </c>
     </row>
-    <row r="5" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4148,31 +4358,31 @@
         <v>1.99</v>
       </c>
       <c r="C5">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="D5">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="E5">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="F5">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G5">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H5">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I5">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J5">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="K5">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
         <v>1.73</v>
@@ -4181,7 +4391,7 @@
         <v>1.7</v>
       </c>
       <c r="N5">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O5">
         <v>1.65</v>
@@ -4193,7 +4403,7 @@
         <v>1.61</v>
       </c>
       <c r="R5">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S5">
         <v>1.58</v>
@@ -4202,13 +4412,13 @@
         <v>1.56</v>
       </c>
       <c r="U5">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V5">
         <v>1.51</v>
       </c>
       <c r="W5">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X5">
         <v>1.44</v>
@@ -4274,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AT5">
         <v>0.99</v>
@@ -4292,7 +4502,7 @@
         <v>0.98</v>
       </c>
       <c r="AY5">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AZ5">
         <v>0.97</v>
@@ -4325,13 +4535,13 @@
         <v>0.96</v>
       </c>
       <c r="BJ5">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="BK5">
         <v>0.95</v>
       </c>
       <c r="BL5">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="BM5">
         <v>0.94</v>
@@ -4352,7 +4562,7 @@
         <v>0.87</v>
       </c>
       <c r="BS5">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BT5">
         <v>0.86</v>
@@ -4382,7 +4592,7 @@
         <v>0.94</v>
       </c>
       <c r="CC5">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="CD5">
         <v>0.97</v>
@@ -4415,7 +4625,7 @@
         <v>1.07</v>
       </c>
       <c r="CN5">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="CO5">
         <v>1.1000000000000001</v>
@@ -4424,7 +4634,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CQ5">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CR5">
         <v>1.1499999999999999</v>
@@ -4436,7 +4646,7 @@
         <v>1.17</v>
       </c>
       <c r="CU5">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="CV5">
         <v>1.18</v>
@@ -4469,19 +4679,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DF5">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="DG5">
         <v>1.1399999999999999</v>
       </c>
       <c r="DH5">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="DI5">
         <v>1.1299999999999999</v>
       </c>
       <c r="DJ5">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="DK5">
         <v>1.1399999999999999</v>
@@ -4538,7 +4748,7 @@
         <v>1.23</v>
       </c>
       <c r="EC5">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="ED5">
         <v>1.22</v>
@@ -4676,7 +4886,7 @@
         <v>1.01</v>
       </c>
       <c r="FW5">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="FX5">
         <v>1.02</v>
@@ -4691,7 +4901,7 @@
         <v>1.02</v>
       </c>
       <c r="GB5">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GC5">
         <v>1.03</v>
@@ -4700,7 +4910,7 @@
         <v>1.03</v>
       </c>
       <c r="GE5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GF5">
         <v>1.04</v>
@@ -4709,138 +4919,180 @@
         <v>1.04</v>
       </c>
       <c r="GH5">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GI5">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GJ5">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GK5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GL5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GM5">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GN5">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GO5">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="GP5">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GQ5">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GR5">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GS5">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GT5">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GU5">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GV5">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GW5">
-        <v>1.0900000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GX5">
-        <v>1.0900000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="GY5">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="HA5">
-        <v>1.1100000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="HB5">
+        <v>1.18</v>
+      </c>
+      <c r="HC5">
+        <v>1.18</v>
+      </c>
+      <c r="HD5">
+        <v>1.19</v>
+      </c>
+      <c r="HE5">
+        <v>1.19</v>
+      </c>
+      <c r="HF5">
+        <v>1.19</v>
+      </c>
+      <c r="HG5">
+        <v>1.19</v>
+      </c>
+      <c r="HH5">
+        <v>1.19</v>
+      </c>
+      <c r="HI5">
+        <v>1.19</v>
+      </c>
+      <c r="HJ5">
+        <v>1.19</v>
+      </c>
+      <c r="HK5">
+        <v>1.19</v>
+      </c>
+      <c r="HL5">
+        <v>1.18</v>
+      </c>
+      <c r="HM5">
+        <v>1.18</v>
+      </c>
+      <c r="HN5">
+        <v>1.17</v>
+      </c>
+      <c r="HO5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HP5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HQ5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HR5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HS5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HT5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HU5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="HC5">
+      <c r="HV5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="HD5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HE5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HF5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HG5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HH5">
-        <v>1.1100000000000001</v>
-      </c>
     </row>
-    <row r="6" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1.62</v>
+      </c>
+      <c r="C6">
+        <v>1.62</v>
+      </c>
+      <c r="D6">
+        <v>1.62</v>
+      </c>
+      <c r="E6">
         <v>1.63</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>1.63</v>
-      </c>
-      <c r="D6">
-        <v>1.63</v>
-      </c>
-      <c r="E6">
-        <v>1.62</v>
-      </c>
-      <c r="F6">
-        <v>1.64</v>
       </c>
       <c r="G6">
         <v>1.62</v>
       </c>
       <c r="H6">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="I6">
         <v>1.6</v>
       </c>
       <c r="J6">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K6">
         <v>1.58</v>
       </c>
       <c r="L6">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M6">
         <v>1.55</v>
       </c>
       <c r="N6">
+        <v>1.54</v>
+      </c>
+      <c r="O6">
         <v>1.53</v>
-      </c>
-      <c r="O6">
-        <v>1.52</v>
       </c>
       <c r="P6">
         <v>1.51</v>
       </c>
       <c r="Q6">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R6">
         <v>1.48</v>
@@ -4852,7 +5104,7 @@
         <v>1.46</v>
       </c>
       <c r="U6">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V6">
         <v>1.42</v>
@@ -4870,19 +5122,19 @@
         <v>1.3</v>
       </c>
       <c r="AA6">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AB6">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AC6">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AD6">
         <v>1.18</v>
       </c>
       <c r="AE6">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AF6">
         <v>1.1299999999999999</v>
@@ -4924,7 +5176,7 @@
         <v>0.96</v>
       </c>
       <c r="AS6">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AT6">
         <v>0.95</v>
@@ -4939,7 +5191,7 @@
         <v>0.94</v>
       </c>
       <c r="AX6">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="AY6">
         <v>0.94</v>
@@ -4993,7 +5245,7 @@
         <v>0.87</v>
       </c>
       <c r="BP6">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BQ6">
         <v>0.84</v>
@@ -5023,7 +5275,7 @@
         <v>0.85</v>
       </c>
       <c r="BZ6">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="CA6">
         <v>0.88</v>
@@ -5032,7 +5284,7 @@
         <v>0.89</v>
       </c>
       <c r="CC6">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="CD6">
         <v>0.92</v>
@@ -5047,7 +5299,7 @@
         <v>0.95</v>
       </c>
       <c r="CH6">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="CI6">
         <v>0.97</v>
@@ -5074,7 +5326,7 @@
         <v>1.06</v>
       </c>
       <c r="CQ6">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="CR6">
         <v>1.0900000000000001</v>
@@ -5089,25 +5341,25 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CV6">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="CW6">
         <v>1.1299999999999999</v>
       </c>
       <c r="CX6">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CY6">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CZ6">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="DA6">
         <v>1.1299999999999999</v>
       </c>
       <c r="DB6">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DC6">
         <v>1.1200000000000001</v>
@@ -5116,7 +5368,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DE6">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="DF6">
         <v>1.1000000000000001</v>
@@ -5146,7 +5398,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DO6">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DP6">
         <v>1.1200000000000001</v>
@@ -5158,10 +5410,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="DS6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="DT6">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="DT6">
-        <v>1.1599999999999999</v>
       </c>
       <c r="DU6">
         <v>1.1599999999999999</v>
@@ -5173,7 +5425,7 @@
         <v>1.18</v>
       </c>
       <c r="DX6">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="DY6">
         <v>1.19</v>
@@ -5182,10 +5434,10 @@
         <v>1.19</v>
       </c>
       <c r="EA6">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="EB6">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="EC6">
         <v>1.19</v>
@@ -5275,7 +5527,7 @@
         <v>0.99</v>
       </c>
       <c r="FF6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FG6">
         <v>0.98</v>
@@ -5305,7 +5557,7 @@
         <v>0.97</v>
       </c>
       <c r="FP6">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="FQ6">
         <v>0.98</v>
@@ -5341,138 +5593,180 @@
         <v>1</v>
       </c>
       <c r="GB6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GC6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GD6">
         <v>1.01</v>
       </c>
       <c r="GE6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GF6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GG6">
         <v>1.02</v>
       </c>
       <c r="GH6">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GI6">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GJ6">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GK6">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GL6">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GM6">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="GN6">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GO6">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="GP6">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="GQ6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="GR6">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GS6">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GT6">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GU6">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GV6">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GW6">
-        <v>1.06</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GX6">
-        <v>1.07</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GY6">
-        <v>1.07</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GZ6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HA6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HB6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HC6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HD6">
+        <v>1.17</v>
+      </c>
+      <c r="HE6">
+        <v>1.17</v>
+      </c>
+      <c r="HF6">
+        <v>1.17</v>
+      </c>
+      <c r="HG6">
+        <v>1.17</v>
+      </c>
+      <c r="HH6">
+        <v>1.17</v>
+      </c>
+      <c r="HI6">
+        <v>1.17</v>
+      </c>
+      <c r="HJ6">
+        <v>1.17</v>
+      </c>
+      <c r="HK6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HL6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HM6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HN6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HO6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HP6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HQ6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HR6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HS6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HT6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HU6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HV6">
         <v>1.08</v>
       </c>
-      <c r="HA6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HB6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HC6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HD6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HE6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HF6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HG6">
-        <v>1.08</v>
-      </c>
-      <c r="HH6">
-        <v>1.06</v>
-      </c>
     </row>
-    <row r="7" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="C7">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
         <v>2.09</v>
       </c>
       <c r="E7">
-        <v>2.06</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F7">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G7">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H7">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I7">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J7">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="K7">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="L7">
         <v>1.8</v>
@@ -5481,7 +5775,7 @@
         <v>1.77</v>
       </c>
       <c r="N7">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O7">
         <v>1.71</v>
@@ -5490,13 +5784,13 @@
         <v>1.69</v>
       </c>
       <c r="Q7">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R7">
         <v>1.64</v>
       </c>
       <c r="S7">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T7">
         <v>1.6</v>
@@ -5517,7 +5811,7 @@
         <v>1.44</v>
       </c>
       <c r="Z7">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AA7">
         <v>1.36</v>
@@ -5544,16 +5838,16 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AI7">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AK7">
         <v>1.1000000000000001</v>
       </c>
       <c r="AL7">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AM7">
         <v>1.07</v>
@@ -5577,7 +5871,7 @@
         <v>1.01</v>
       </c>
       <c r="AT7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>1</v>
@@ -5604,10 +5898,10 @@
         <v>0.99</v>
       </c>
       <c r="BC7">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="BD7">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="BE7">
         <v>0.98</v>
@@ -5622,7 +5916,7 @@
         <v>0.98</v>
       </c>
       <c r="BI7">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="BJ7">
         <v>0.97</v>
@@ -5643,7 +5937,7 @@
         <v>0.93</v>
       </c>
       <c r="BP7">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="BQ7">
         <v>0.9</v>
@@ -5694,13 +5988,13 @@
         <v>1.02</v>
       </c>
       <c r="CG7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="CH7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="CI7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="CJ7">
         <v>1.06</v>
@@ -5712,7 +6006,7 @@
         <v>1.08</v>
       </c>
       <c r="CM7">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CN7">
         <v>1.1100000000000001</v>
@@ -5721,7 +6015,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="CP7">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CQ7">
         <v>1.1599999999999999</v>
@@ -5739,7 +6033,7 @@
         <v>1.2</v>
       </c>
       <c r="CV7">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="CW7">
         <v>1.21</v>
@@ -5769,7 +6063,7 @@
         <v>1.17</v>
       </c>
       <c r="DF7">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DG7">
         <v>1.1599999999999999</v>
@@ -5805,7 +6099,7 @@
         <v>1.19</v>
       </c>
       <c r="DR7">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="DS7">
         <v>1.2</v>
@@ -5826,7 +6120,7 @@
         <v>1.24</v>
       </c>
       <c r="DY7">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="DZ7">
         <v>1.24</v>
@@ -5841,7 +6135,7 @@
         <v>1.24</v>
       </c>
       <c r="ED7">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="EE7">
         <v>1.23</v>
@@ -5889,10 +6183,10 @@
         <v>1.08</v>
       </c>
       <c r="ET7">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="EU7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="EV7">
         <v>1.04</v>
@@ -5925,7 +6219,7 @@
         <v>1.02</v>
       </c>
       <c r="FF7">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="FG7">
         <v>1.01</v>
@@ -5976,7 +6270,7 @@
         <v>1.02</v>
       </c>
       <c r="FW7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="FX7">
         <v>1.03</v>
@@ -5991,7 +6285,7 @@
         <v>1.03</v>
       </c>
       <c r="GB7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GC7">
         <v>1.04</v>
@@ -6000,111 +6294,153 @@
         <v>1.04</v>
       </c>
       <c r="GE7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GF7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GG7">
         <v>1.05</v>
       </c>
       <c r="GH7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GI7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GJ7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GK7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GL7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GM7">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="GN7">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GO7">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GP7">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GQ7">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GR7">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GS7">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GT7">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GU7">
-        <v>1.0900000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GV7">
-        <v>1.0900000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GW7">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="GX7">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="GY7">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="GZ7">
-        <v>1.1200000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="HA7">
-        <v>1.1200000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="HB7">
+        <v>1.19</v>
+      </c>
+      <c r="HC7">
+        <v>1.19</v>
+      </c>
+      <c r="HD7">
+        <v>1.2</v>
+      </c>
+      <c r="HE7">
+        <v>1.2</v>
+      </c>
+      <c r="HF7">
+        <v>1.2</v>
+      </c>
+      <c r="HG7">
+        <v>1.2</v>
+      </c>
+      <c r="HH7">
+        <v>1.2</v>
+      </c>
+      <c r="HI7">
+        <v>1.2</v>
+      </c>
+      <c r="HJ7">
+        <v>1.2</v>
+      </c>
+      <c r="HK7">
+        <v>1.2</v>
+      </c>
+      <c r="HL7">
+        <v>1.19</v>
+      </c>
+      <c r="HM7">
+        <v>1.19</v>
+      </c>
+      <c r="HN7">
+        <v>1.18</v>
+      </c>
+      <c r="HO7">
+        <v>1.17</v>
+      </c>
+      <c r="HP7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HQ7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HR7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HS7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HT7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HU7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HV7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="HC7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HD7">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HE7">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HF7">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HG7">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HH7">
-        <v>1.1299999999999999</v>
-      </c>
     </row>
-    <row r="8" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="C8">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="D8">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="E8">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="F8">
         <v>1.6</v>
@@ -6125,19 +6461,19 @@
         <v>1.56</v>
       </c>
       <c r="L8">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M8">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="N8">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O8">
         <v>1.51</v>
       </c>
       <c r="P8">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q8">
         <v>1.48</v>
@@ -6149,19 +6485,19 @@
         <v>1.46</v>
       </c>
       <c r="T8">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U8">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="V8">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W8">
         <v>1.38</v>
       </c>
       <c r="X8">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Y8">
         <v>1.32</v>
@@ -6173,13 +6509,13 @@
         <v>1.26</v>
       </c>
       <c r="AB8">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AC8">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AD8">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AE8">
         <v>1.1499999999999999</v>
@@ -6218,16 +6554,16 @@
         <v>0.97</v>
       </c>
       <c r="AQ8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="AR8">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AS8">
         <v>0.95</v>
       </c>
       <c r="AT8">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="AU8">
         <v>0.94</v>
@@ -6251,13 +6587,13 @@
         <v>0.93</v>
       </c>
       <c r="BB8">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="BC8">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="BD8">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="BE8">
         <v>0.92</v>
@@ -6266,7 +6602,7 @@
         <v>0.92</v>
       </c>
       <c r="BG8">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="BH8">
         <v>0.91</v>
@@ -6281,10 +6617,10 @@
         <v>0.9</v>
       </c>
       <c r="BL8">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="BM8">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BN8">
         <v>0.88</v>
@@ -6296,7 +6632,7 @@
         <v>0.85</v>
       </c>
       <c r="BQ8">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="BR8">
         <v>0.83</v>
@@ -6317,13 +6653,13 @@
         <v>0.82</v>
       </c>
       <c r="BX8">
+        <v>0.83</v>
+      </c>
+      <c r="BY8">
         <v>0.84</v>
       </c>
-      <c r="BY8">
+      <c r="BZ8">
         <v>0.85</v>
-      </c>
-      <c r="BZ8">
-        <v>0.86</v>
       </c>
       <c r="CA8">
         <v>0.87</v>
@@ -6344,7 +6680,7 @@
         <v>0.94</v>
       </c>
       <c r="CG8">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="CH8">
         <v>0.96</v>
@@ -6353,7 +6689,7 @@
         <v>0.96</v>
       </c>
       <c r="CJ8">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="CK8">
         <v>0.98</v>
@@ -6362,13 +6698,13 @@
         <v>0.99</v>
       </c>
       <c r="CM8">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="CN8">
         <v>1.02</v>
       </c>
       <c r="CO8">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="CP8">
         <v>1.05</v>
@@ -6377,7 +6713,7 @@
         <v>1.07</v>
       </c>
       <c r="CR8">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="CS8">
         <v>1.1000000000000001</v>
@@ -6395,7 +6731,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CX8">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CY8">
         <v>1.1299999999999999</v>
@@ -6413,7 +6749,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DD8">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="DE8">
         <v>1.1000000000000001</v>
@@ -6425,7 +6761,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="DH8">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="DI8">
         <v>1.08</v>
@@ -6449,10 +6785,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DP8">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DQ8">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="DR8">
         <v>1.1299999999999999</v>
@@ -6470,7 +6806,7 @@
         <v>1.17</v>
       </c>
       <c r="DW8">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="DX8">
         <v>1.18</v>
@@ -6488,10 +6824,10 @@
         <v>1.19</v>
       </c>
       <c r="EC8">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="ED8">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="EE8">
         <v>1.18</v>
@@ -6509,7 +6845,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="EJ8">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="EK8">
         <v>1.1499999999999999</v>
@@ -6572,7 +6908,7 @@
         <v>0.99</v>
       </c>
       <c r="FE8">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FF8">
         <v>0.98</v>
@@ -6632,7 +6968,7 @@
         <v>0.99</v>
       </c>
       <c r="FY8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FZ8">
         <v>1</v>
@@ -6647,100 +6983,142 @@
         <v>1</v>
       </c>
       <c r="GD8">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="GE8">
         <v>1.01</v>
       </c>
       <c r="GF8">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GG8">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="GH8">
         <v>1.02</v>
       </c>
       <c r="GI8">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GJ8">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GK8">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="GL8">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GM8">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GN8">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="GO8">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GP8">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="GQ8">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="GR8">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="GS8">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="GT8">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GU8">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GV8">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GW8">
-        <v>1.06</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GX8">
-        <v>1.06</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GY8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="GZ8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HA8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HB8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HC8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HD8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HE8">
+        <v>1.17</v>
+      </c>
+      <c r="HF8">
+        <v>1.17</v>
+      </c>
+      <c r="HG8">
+        <v>1.17</v>
+      </c>
+      <c r="HH8">
+        <v>1.17</v>
+      </c>
+      <c r="HI8">
+        <v>1.17</v>
+      </c>
+      <c r="HJ8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HK8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HL8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HM8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HN8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HO8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HP8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HQ8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HR8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HS8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HT8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HU8">
+        <v>1.08</v>
+      </c>
+      <c r="HV8">
         <v>1.07</v>
       </c>
-      <c r="GZ8">
-        <v>1.08</v>
-      </c>
-      <c r="HA8">
-        <v>1.08</v>
-      </c>
-      <c r="HB8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HC8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HD8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HE8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="HF8">
-        <v>1.08</v>
-      </c>
-      <c r="HG8">
-        <v>1.07</v>
-      </c>
-      <c r="HH8">
-        <v>1.05</v>
-      </c>
     </row>
-    <row r="9" spans="1:216" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:230" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6748,25 +7126,25 @@
         <v>2.21</v>
       </c>
       <c r="C9">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="D9">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="E9">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="F9">
-        <v>2.0699999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G9">
-        <v>2.0299999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H9">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I9">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J9">
         <v>1.89</v>
@@ -6775,7 +7153,7 @@
         <v>1.86</v>
       </c>
       <c r="L9">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M9">
         <v>1.79</v>
@@ -6787,10 +7165,10 @@
         <v>1.73</v>
       </c>
       <c r="P9">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q9">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R9">
         <v>1.66</v>
@@ -6799,7 +7177,7 @@
         <v>1.64</v>
       </c>
       <c r="T9">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U9">
         <v>1.58</v>
@@ -6808,19 +7186,19 @@
         <v>1.56</v>
       </c>
       <c r="W9">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X9">
         <v>1.49</v>
       </c>
       <c r="Y9">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Z9">
         <v>1.4</v>
       </c>
       <c r="AA9">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AB9">
         <v>1.33</v>
@@ -6832,13 +7210,13 @@
         <v>1.26</v>
       </c>
       <c r="AE9">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AF9">
         <v>1.21</v>
       </c>
       <c r="AG9">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AH9">
         <v>1.1599999999999999</v>
@@ -6850,7 +7228,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AK9">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AL9">
         <v>1.0900000000000001</v>
@@ -6871,7 +7249,7 @@
         <v>1.03</v>
       </c>
       <c r="AR9">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AS9">
         <v>1.02</v>
@@ -6895,10 +7273,10 @@
         <v>1</v>
       </c>
       <c r="AZ9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BA9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BB9">
         <v>0.99</v>
@@ -6928,7 +7306,7 @@
         <v>0.98</v>
       </c>
       <c r="BK9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="BL9">
         <v>0.97</v>
@@ -6955,7 +7333,7 @@
         <v>0.89</v>
       </c>
       <c r="BT9">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BU9">
         <v>0.89</v>
@@ -6964,7 +7342,7 @@
         <v>0.89</v>
       </c>
       <c r="BW9">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="BX9">
         <v>0.91</v>
@@ -6982,13 +7360,13 @@
         <v>0.97</v>
       </c>
       <c r="CC9">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="CD9">
         <v>1</v>
       </c>
       <c r="CE9">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="CF9">
         <v>1.03</v>
@@ -7006,7 +7384,7 @@
         <v>1.07</v>
       </c>
       <c r="CK9">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="CL9">
         <v>1.0900000000000001</v>
@@ -7018,7 +7396,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CO9">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CP9">
         <v>1.1499999999999999</v>
@@ -7072,7 +7450,7 @@
         <v>1.17</v>
       </c>
       <c r="DG9">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DH9">
         <v>1.1599999999999999</v>
@@ -7099,7 +7477,7 @@
         <v>1.18</v>
       </c>
       <c r="DP9">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="DQ9">
         <v>1.19</v>
@@ -7111,7 +7489,7 @@
         <v>1.21</v>
       </c>
       <c r="DT9">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="DU9">
         <v>1.22</v>
@@ -7162,7 +7540,7 @@
         <v>1.21</v>
       </c>
       <c r="EK9">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="EL9">
         <v>1.18</v>
@@ -7201,7 +7579,7 @@
         <v>1.04</v>
       </c>
       <c r="EX9">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="EY9">
         <v>1.03</v>
@@ -7273,7 +7651,7 @@
         <v>1.02</v>
       </c>
       <c r="FV9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="FW9">
         <v>1.03</v>
@@ -7288,7 +7666,7 @@
         <v>1.03</v>
       </c>
       <c r="GA9">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GB9">
         <v>1.04</v>
@@ -7297,97 +7675,139 @@
         <v>1.04</v>
       </c>
       <c r="GD9">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GE9">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GF9">
         <v>1.05</v>
       </c>
       <c r="GG9">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GH9">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GI9">
         <v>1.06</v>
       </c>
       <c r="GJ9">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GK9">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GL9">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="GM9">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="GN9">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GO9">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GP9">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GQ9">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GR9">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GS9">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GT9">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GU9">
-        <v>1.0900000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GV9">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="GW9">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="GX9">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="GY9">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="GZ9">
-        <v>1.1200000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="HA9">
+        <v>1.18</v>
+      </c>
+      <c r="HB9">
+        <v>1.19</v>
+      </c>
+      <c r="HC9">
+        <v>1.2</v>
+      </c>
+      <c r="HD9">
+        <v>1.2</v>
+      </c>
+      <c r="HE9">
+        <v>1.2</v>
+      </c>
+      <c r="HF9">
+        <v>1.21</v>
+      </c>
+      <c r="HG9">
+        <v>1.21</v>
+      </c>
+      <c r="HH9">
+        <v>1.2</v>
+      </c>
+      <c r="HI9">
+        <v>1.2</v>
+      </c>
+      <c r="HJ9">
+        <v>1.2</v>
+      </c>
+      <c r="HK9">
+        <v>1.2</v>
+      </c>
+      <c r="HL9">
+        <v>1.19</v>
+      </c>
+      <c r="HM9">
+        <v>1.19</v>
+      </c>
+      <c r="HN9">
+        <v>1.18</v>
+      </c>
+      <c r="HO9">
+        <v>1.18</v>
+      </c>
+      <c r="HP9">
+        <v>1.17</v>
+      </c>
+      <c r="HQ9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HR9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HS9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HT9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HU9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HV9">
         <v>1.1299999999999999</v>
-      </c>
-      <c r="HB9">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HC9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HD9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HE9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HF9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HG9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HH9">
-        <v>1.1399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
+++ b/Database/Norbert/Numarul_de_reproductie_Sars-cov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A294934D-B3C1-40D1-97FE-1E2A821B2A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4BB8A-6805-42D6-B412-D9ECBCB6DBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="950" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4490" yWindow="3470" windowWidth="26960" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numarul de reproductie RNumarul" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Data</t>
   </si>
@@ -734,6 +734,48 @@
   </si>
   <si>
     <t>14 Oct.</t>
+  </si>
+  <si>
+    <t>15 Oct.</t>
+  </si>
+  <si>
+    <t>16 Oct.</t>
+  </si>
+  <si>
+    <t>17 Oct.</t>
+  </si>
+  <si>
+    <t>18 Oct.</t>
+  </si>
+  <si>
+    <t>19 Oct.</t>
+  </si>
+  <si>
+    <t>20 Oct.</t>
+  </si>
+  <si>
+    <t>21 Oct.</t>
+  </si>
+  <si>
+    <t>22 Oct.</t>
+  </si>
+  <si>
+    <t>23 Oct.</t>
+  </si>
+  <si>
+    <t>24 Oct.</t>
+  </si>
+  <si>
+    <t>25 Oct.</t>
+  </si>
+  <si>
+    <t>26 Oct.</t>
+  </si>
+  <si>
+    <t>27 Oct.</t>
+  </si>
+  <si>
+    <t>28 Oct.</t>
   </si>
 </sst>
 </file>
@@ -1574,15 +1616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HV9"/>
+  <dimension ref="A1:IJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GT1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2273,8 +2315,50 @@
       <c r="HV1" t="s">
         <v>237</v>
       </c>
+      <c r="HW1" t="s">
+        <v>238</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>239</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>240</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>244</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>249</v>
+      </c>
+      <c r="II1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="2" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2965,8 +3049,50 @@
       <c r="HV2">
         <v>229</v>
       </c>
+      <c r="HW2">
+        <v>230</v>
+      </c>
+      <c r="HX2">
+        <v>231</v>
+      </c>
+      <c r="HY2">
+        <v>232</v>
+      </c>
+      <c r="HZ2">
+        <v>233</v>
+      </c>
+      <c r="IA2">
+        <v>234</v>
+      </c>
+      <c r="IB2">
+        <v>235</v>
+      </c>
+      <c r="IC2">
+        <v>236</v>
+      </c>
+      <c r="ID2">
+        <v>237</v>
+      </c>
+      <c r="IE2">
+        <v>238</v>
+      </c>
+      <c r="IF2">
+        <v>239</v>
+      </c>
+      <c r="IG2">
+        <v>240</v>
+      </c>
+      <c r="IH2">
+        <v>241</v>
+      </c>
+      <c r="II2">
+        <v>242</v>
+      </c>
+      <c r="IJ2">
+        <v>243</v>
+      </c>
     </row>
-    <row r="3" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2974,31 +3100,31 @@
         <v>1.88</v>
       </c>
       <c r="C3">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="D3">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="E3">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F3">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G3">
         <v>1.79</v>
       </c>
       <c r="H3">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I3">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J3">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="L3">
         <v>1.68</v>
@@ -3052,7 +3178,7 @@
         <v>1.28</v>
       </c>
       <c r="AC3">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AD3">
         <v>1.22</v>
@@ -3148,7 +3274,7 @@
         <v>0.95</v>
       </c>
       <c r="BI3">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="BJ3">
         <v>0.94</v>
@@ -3265,7 +3391,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="CV3">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="CW3">
         <v>1.17</v>
@@ -3334,7 +3460,7 @@
         <v>1.17</v>
       </c>
       <c r="DS3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="DT3">
         <v>1.18</v>
@@ -3529,7 +3655,7 @@
         <v>1.03</v>
       </c>
       <c r="GF3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GG3">
         <v>1.04</v>
@@ -3538,7 +3664,7 @@
         <v>1.04</v>
       </c>
       <c r="GI3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GJ3">
         <v>1.05</v>
@@ -3550,7 +3676,7 @@
         <v>1.06</v>
       </c>
       <c r="GM3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GN3">
         <v>1.07</v>
@@ -3559,123 +3685,165 @@
         <v>1.08</v>
       </c>
       <c r="GP3">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GQ3">
         <v>1.0900000000000001</v>
       </c>
       <c r="GR3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GS3">
         <v>1.1000000000000001</v>
       </c>
       <c r="GT3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="GU3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="GV3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="GW3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="GX3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="GY3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="GZ3">
+        <v>1.17</v>
+      </c>
+      <c r="HA3">
+        <v>1.18</v>
+      </c>
+      <c r="HB3">
+        <v>1.19</v>
+      </c>
+      <c r="HC3">
+        <v>1.19</v>
+      </c>
+      <c r="HD3">
+        <v>1.2</v>
+      </c>
+      <c r="HE3">
+        <v>1.2</v>
+      </c>
+      <c r="HF3">
+        <v>1.2</v>
+      </c>
+      <c r="HG3">
+        <v>1.2</v>
+      </c>
+      <c r="HH3">
+        <v>1.2</v>
+      </c>
+      <c r="HI3">
+        <v>1.2</v>
+      </c>
+      <c r="HJ3">
+        <v>1.2</v>
+      </c>
+      <c r="HK3">
+        <v>1.2</v>
+      </c>
+      <c r="HL3">
+        <v>1.19</v>
+      </c>
+      <c r="HM3">
+        <v>1.19</v>
+      </c>
+      <c r="HN3">
+        <v>1.18</v>
+      </c>
+      <c r="HO3">
+        <v>1.17</v>
+      </c>
+      <c r="HP3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HQ3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HR3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HS3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HT3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HU3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HV3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HW3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HX3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HY3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="GU3">
+      <c r="HZ3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IA3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IB3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IC3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="ID3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="IE3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IF3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IG3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="GV3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="GW3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="GX3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="GY3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="GZ3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HA3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HB3">
-        <v>1.17</v>
-      </c>
-      <c r="HC3">
-        <v>1.18</v>
-      </c>
-      <c r="HD3">
-        <v>1.18</v>
-      </c>
-      <c r="HE3">
-        <v>1.19</v>
-      </c>
-      <c r="HF3">
-        <v>1.19</v>
-      </c>
-      <c r="HG3">
-        <v>1.19</v>
-      </c>
-      <c r="HH3">
-        <v>1.19</v>
-      </c>
-      <c r="HI3">
-        <v>1.18</v>
-      </c>
-      <c r="HJ3">
-        <v>1.18</v>
-      </c>
-      <c r="HK3">
-        <v>1.18</v>
-      </c>
-      <c r="HL3">
-        <v>1.18</v>
-      </c>
-      <c r="HM3">
-        <v>1.17</v>
-      </c>
-      <c r="HN3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HO3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HP3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HQ3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HR3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HS3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HT3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HU3">
+      <c r="IH3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="HV3">
+      <c r="II3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="IJ3">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="C4">
+        <v>1.76</v>
+      </c>
+      <c r="D4">
         <v>1.75</v>
-      </c>
-      <c r="D4">
-        <v>1.74</v>
       </c>
       <c r="E4">
         <v>1.74</v>
       </c>
       <c r="F4">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G4">
         <v>1.71</v>
@@ -3684,7 +3852,7 @@
         <v>1.7</v>
       </c>
       <c r="I4">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J4">
         <v>1.67</v>
@@ -3693,16 +3861,16 @@
         <v>1.65</v>
       </c>
       <c r="L4">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M4">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N4">
         <v>1.59</v>
       </c>
       <c r="O4">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P4">
         <v>1.56</v>
@@ -3714,7 +3882,7 @@
         <v>1.53</v>
       </c>
       <c r="S4">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="T4">
         <v>1.5</v>
@@ -3723,19 +3891,19 @@
         <v>1.48</v>
       </c>
       <c r="V4">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W4">
         <v>1.43</v>
       </c>
       <c r="X4">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Y4">
         <v>1.36</v>
       </c>
       <c r="Z4">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA4">
         <v>1.29</v>
@@ -3750,7 +3918,7 @@
         <v>1.2</v>
       </c>
       <c r="AE4">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF4">
         <v>1.1499999999999999</v>
@@ -3768,7 +3936,7 @@
         <v>1.07</v>
       </c>
       <c r="AK4">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AL4">
         <v>1.04</v>
@@ -3804,7 +3972,7 @@
         <v>0.96</v>
       </c>
       <c r="AW4">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AX4">
         <v>0.95</v>
@@ -3837,7 +4005,7 @@
         <v>0.94</v>
       </c>
       <c r="BH4">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="BI4">
         <v>0.93</v>
@@ -3891,7 +4059,7 @@
         <v>0.87</v>
       </c>
       <c r="BZ4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="CA4">
         <v>0.9</v>
@@ -3909,7 +4077,7 @@
         <v>0.95</v>
       </c>
       <c r="CF4">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="CG4">
         <v>0.98</v>
@@ -3984,7 +4152,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="DE4">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DF4">
         <v>1.1200000000000001</v>
@@ -4023,7 +4191,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DR4">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DS4">
         <v>1.1599999999999999</v>
@@ -4065,7 +4233,7 @@
         <v>1.2</v>
       </c>
       <c r="EF4">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="EG4">
         <v>1.19</v>
@@ -4128,7 +4296,7 @@
         <v>1.01</v>
       </c>
       <c r="FA4">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -4152,7 +4320,7 @@
         <v>0.99</v>
       </c>
       <c r="FI4">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="FJ4">
         <v>0.98</v>
@@ -4194,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="FW4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="FX4">
         <v>1.01</v>
@@ -4245,7 +4413,7 @@
         <v>1.06</v>
       </c>
       <c r="GN4">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GO4">
         <v>1.07</v>
@@ -4254,103 +4422,145 @@
         <v>1.08</v>
       </c>
       <c r="GQ4">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GR4">
         <v>1.0900000000000001</v>
       </c>
       <c r="GS4">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GT4">
         <v>1.1000000000000001</v>
       </c>
       <c r="GU4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="GV4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="GW4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="GX4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="GY4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="GZ4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HA4">
+        <v>1.17</v>
+      </c>
+      <c r="HB4">
+        <v>1.18</v>
+      </c>
+      <c r="HC4">
+        <v>1.19</v>
+      </c>
+      <c r="HD4">
+        <v>1.19</v>
+      </c>
+      <c r="HE4">
+        <v>1.19</v>
+      </c>
+      <c r="HF4">
+        <v>1.2</v>
+      </c>
+      <c r="HG4">
+        <v>1.2</v>
+      </c>
+      <c r="HH4">
+        <v>1.2</v>
+      </c>
+      <c r="HI4">
+        <v>1.2</v>
+      </c>
+      <c r="HJ4">
+        <v>1.19</v>
+      </c>
+      <c r="HK4">
+        <v>1.19</v>
+      </c>
+      <c r="HL4">
+        <v>1.19</v>
+      </c>
+      <c r="HM4">
+        <v>1.18</v>
+      </c>
+      <c r="HN4">
+        <v>1.17</v>
+      </c>
+      <c r="HO4">
+        <v>1.17</v>
+      </c>
+      <c r="HP4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HQ4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HR4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HS4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HT4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HU4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HV4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HW4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="GV4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="GW4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="GX4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="GY4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="GZ4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HA4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HB4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HC4">
-        <v>1.17</v>
-      </c>
-      <c r="HD4">
-        <v>1.18</v>
-      </c>
-      <c r="HE4">
-        <v>1.18</v>
-      </c>
-      <c r="HF4">
-        <v>1.18</v>
-      </c>
-      <c r="HG4">
-        <v>1.18</v>
-      </c>
-      <c r="HH4">
-        <v>1.18</v>
-      </c>
-      <c r="HI4">
-        <v>1.18</v>
-      </c>
-      <c r="HJ4">
-        <v>1.18</v>
-      </c>
-      <c r="HK4">
-        <v>1.17</v>
-      </c>
-      <c r="HL4">
-        <v>1.17</v>
-      </c>
-      <c r="HM4">
-        <v>1.17</v>
-      </c>
-      <c r="HN4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HO4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HP4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HQ4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HR4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HS4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HT4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HU4">
+      <c r="HX4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="HV4">
+      <c r="HY4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HZ4">
         <v>1.0900000000000001</v>
       </c>
+      <c r="IA4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="IB4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="IC4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="ID4">
+        <v>1.08</v>
+      </c>
+      <c r="IE4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="IF4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="IG4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="IH4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="II4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="IJ4">
+        <v>1.08</v>
+      </c>
     </row>
-    <row r="5" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4358,31 +4568,31 @@
         <v>1.99</v>
       </c>
       <c r="C5">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="D5">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="E5">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="F5">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G5">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H5">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I5">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J5">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="K5">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="L5">
         <v>1.73</v>
@@ -4412,7 +4622,7 @@
         <v>1.56</v>
       </c>
       <c r="U5">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V5">
         <v>1.51</v>
@@ -4451,7 +4661,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AH5">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AI5">
         <v>1.1100000000000001</v>
@@ -4484,13 +4694,13 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>0.99</v>
       </c>
       <c r="AU5">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AV5">
         <v>0.98</v>
@@ -4502,7 +4712,7 @@
         <v>0.98</v>
       </c>
       <c r="AY5">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="AZ5">
         <v>0.97</v>
@@ -4544,7 +4754,7 @@
         <v>0.94</v>
       </c>
       <c r="BM5">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="BN5">
         <v>0.92</v>
@@ -4562,7 +4772,7 @@
         <v>0.87</v>
       </c>
       <c r="BS5">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="BT5">
         <v>0.86</v>
@@ -4634,7 +4844,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="CQ5">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CR5">
         <v>1.1499999999999999</v>
@@ -4679,13 +4889,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DF5">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DG5">
         <v>1.1399999999999999</v>
       </c>
       <c r="DH5">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="DI5">
         <v>1.1299999999999999</v>
@@ -4700,7 +4910,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="DM5">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="DN5">
         <v>1.1499999999999999</v>
@@ -4799,7 +5009,7 @@
         <v>1.07</v>
       </c>
       <c r="ET5">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="EU5">
         <v>1.04</v>
@@ -4883,7 +5093,7 @@
         <v>1.01</v>
       </c>
       <c r="FV5">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="FW5">
         <v>1.02</v>
@@ -4916,7 +5126,7 @@
         <v>1.04</v>
       </c>
       <c r="GG5">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GH5">
         <v>1.05</v>
@@ -4925,22 +5135,22 @@
         <v>1.05</v>
       </c>
       <c r="GJ5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GK5">
         <v>1.06</v>
       </c>
       <c r="GL5">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GM5">
         <v>1.07</v>
       </c>
       <c r="GN5">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="GO5">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GP5">
         <v>1.0900000000000001</v>
@@ -4955,7 +5165,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="GT5">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GU5">
         <v>1.1200000000000001</v>
@@ -4964,105 +5174,147 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="GW5">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="GX5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="GY5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="GZ5">
+        <v>1.17</v>
+      </c>
+      <c r="HA5">
+        <v>1.18</v>
+      </c>
+      <c r="HB5">
+        <v>1.19</v>
+      </c>
+      <c r="HC5">
+        <v>1.2</v>
+      </c>
+      <c r="HD5">
+        <v>1.2</v>
+      </c>
+      <c r="HE5">
+        <v>1.21</v>
+      </c>
+      <c r="HF5">
+        <v>1.21</v>
+      </c>
+      <c r="HG5">
+        <v>1.21</v>
+      </c>
+      <c r="HH5">
+        <v>1.21</v>
+      </c>
+      <c r="HI5">
+        <v>1.21</v>
+      </c>
+      <c r="HJ5">
+        <v>1.21</v>
+      </c>
+      <c r="HK5">
+        <v>1.2</v>
+      </c>
+      <c r="HL5">
+        <v>1.2</v>
+      </c>
+      <c r="HM5">
+        <v>1.19</v>
+      </c>
+      <c r="HN5">
+        <v>1.19</v>
+      </c>
+      <c r="HO5">
+        <v>1.18</v>
+      </c>
+      <c r="HP5">
+        <v>1.17</v>
+      </c>
+      <c r="HQ5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HR5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HS5">
         <v>1.1399999999999999</v>
-      </c>
-      <c r="GY5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="GZ5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HA5">
-        <v>1.17</v>
-      </c>
-      <c r="HB5">
-        <v>1.18</v>
-      </c>
-      <c r="HC5">
-        <v>1.18</v>
-      </c>
-      <c r="HD5">
-        <v>1.19</v>
-      </c>
-      <c r="HE5">
-        <v>1.19</v>
-      </c>
-      <c r="HF5">
-        <v>1.19</v>
-      </c>
-      <c r="HG5">
-        <v>1.19</v>
-      </c>
-      <c r="HH5">
-        <v>1.19</v>
-      </c>
-      <c r="HI5">
-        <v>1.19</v>
-      </c>
-      <c r="HJ5">
-        <v>1.19</v>
-      </c>
-      <c r="HK5">
-        <v>1.19</v>
-      </c>
-      <c r="HL5">
-        <v>1.18</v>
-      </c>
-      <c r="HM5">
-        <v>1.18</v>
-      </c>
-      <c r="HN5">
-        <v>1.17</v>
-      </c>
-      <c r="HO5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HP5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HQ5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HR5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HS5">
-        <v>1.1299999999999999</v>
       </c>
       <c r="HT5">
         <v>1.1299999999999999</v>
       </c>
       <c r="HU5">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="HV5">
         <v>1.1200000000000001</v>
       </c>
+      <c r="HW5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HX5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HY5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HZ5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="IA5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="IB5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="IC5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="ID5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IE5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="IF5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="IG5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IH5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="II5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="IJ5">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1.63</v>
+      </c>
+      <c r="C6">
+        <v>1.63</v>
+      </c>
+      <c r="D6">
+        <v>1.61</v>
+      </c>
+      <c r="E6">
         <v>1.62</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>1.62</v>
       </c>
-      <c r="D6">
-        <v>1.62</v>
-      </c>
-      <c r="E6">
-        <v>1.63</v>
-      </c>
-      <c r="F6">
-        <v>1.63</v>
-      </c>
       <c r="G6">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H6">
         <v>1.6</v>
@@ -5095,7 +5347,7 @@
         <v>1.5</v>
       </c>
       <c r="R6">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S6">
         <v>1.47</v>
@@ -5113,7 +5365,7 @@
         <v>1.39</v>
       </c>
       <c r="X6">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Y6">
         <v>1.33</v>
@@ -5122,13 +5374,13 @@
         <v>1.3</v>
       </c>
       <c r="AA6">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AB6">
         <v>1.23</v>
       </c>
       <c r="AC6">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AD6">
         <v>1.18</v>
@@ -5182,7 +5434,7 @@
         <v>0.95</v>
       </c>
       <c r="AU6">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="AV6">
         <v>0.94</v>
@@ -5191,7 +5443,7 @@
         <v>0.94</v>
       </c>
       <c r="AX6">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="AY6">
         <v>0.94</v>
@@ -5212,7 +5464,7 @@
         <v>0.93</v>
       </c>
       <c r="BE6">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="BF6">
         <v>0.92</v>
@@ -5275,7 +5527,7 @@
         <v>0.85</v>
       </c>
       <c r="BZ6">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="CA6">
         <v>0.88</v>
@@ -5299,7 +5551,7 @@
         <v>0.95</v>
       </c>
       <c r="CH6">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="CI6">
         <v>0.97</v>
@@ -5317,7 +5569,7 @@
         <v>1.01</v>
       </c>
       <c r="CN6">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="CO6">
         <v>1.04</v>
@@ -5326,7 +5578,7 @@
         <v>1.06</v>
       </c>
       <c r="CQ6">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="CR6">
         <v>1.0900000000000001</v>
@@ -5347,7 +5599,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="CX6">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CY6">
         <v>1.1399999999999999</v>
@@ -5359,7 +5611,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="DB6">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="DC6">
         <v>1.1200000000000001</v>
@@ -5368,13 +5620,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DE6">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="DF6">
         <v>1.1000000000000001</v>
       </c>
       <c r="DG6">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="DH6">
         <v>1.0900000000000001</v>
@@ -5398,7 +5650,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="DO6">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="DP6">
         <v>1.1200000000000001</v>
@@ -5410,10 +5662,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="DS6">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DT6">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DU6">
         <v>1.1599999999999999</v>
@@ -5446,7 +5698,7 @@
         <v>1.19</v>
       </c>
       <c r="EE6">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="EF6">
         <v>1.18</v>
@@ -5473,7 +5725,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="EN6">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="EO6">
         <v>1.1000000000000001</v>
@@ -5527,7 +5779,7 @@
         <v>0.99</v>
       </c>
       <c r="FF6">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="FG6">
         <v>0.98</v>
@@ -5557,7 +5809,7 @@
         <v>0.97</v>
       </c>
       <c r="FP6">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="FQ6">
         <v>0.98</v>
@@ -5578,7 +5830,7 @@
         <v>0.99</v>
       </c>
       <c r="FW6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FX6">
         <v>1</v>
@@ -5629,7 +5881,7 @@
         <v>1.05</v>
       </c>
       <c r="GN6">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GO6">
         <v>1.06</v>
@@ -5638,135 +5890,177 @@
         <v>1.07</v>
       </c>
       <c r="GQ6">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="GR6">
         <v>1.08</v>
       </c>
       <c r="GS6">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GT6">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GU6">
         <v>1.1000000000000001</v>
       </c>
       <c r="GV6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="GW6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="GX6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="GY6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="GZ6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HA6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HB6">
+        <v>1.17</v>
+      </c>
+      <c r="HC6">
+        <v>1.18</v>
+      </c>
+      <c r="HD6">
+        <v>1.18</v>
+      </c>
+      <c r="HE6">
+        <v>1.19</v>
+      </c>
+      <c r="HF6">
+        <v>1.19</v>
+      </c>
+      <c r="HG6">
+        <v>1.19</v>
+      </c>
+      <c r="HH6">
+        <v>1.19</v>
+      </c>
+      <c r="HI6">
+        <v>1.19</v>
+      </c>
+      <c r="HJ6">
+        <v>1.18</v>
+      </c>
+      <c r="HK6">
+        <v>1.18</v>
+      </c>
+      <c r="HL6">
+        <v>1.18</v>
+      </c>
+      <c r="HM6">
+        <v>1.17</v>
+      </c>
+      <c r="HN6">
+        <v>1.17</v>
+      </c>
+      <c r="HO6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HP6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HQ6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HR6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HS6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HT6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HU6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HV6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="GW6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="GX6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="GY6">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="GZ6">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HA6">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HB6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HC6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HD6">
-        <v>1.17</v>
-      </c>
-      <c r="HE6">
-        <v>1.17</v>
-      </c>
-      <c r="HF6">
-        <v>1.17</v>
-      </c>
-      <c r="HG6">
-        <v>1.17</v>
-      </c>
-      <c r="HH6">
-        <v>1.17</v>
-      </c>
-      <c r="HI6">
-        <v>1.17</v>
-      </c>
-      <c r="HJ6">
-        <v>1.17</v>
-      </c>
-      <c r="HK6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HL6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HM6">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HN6">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HO6">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HP6">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HQ6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HR6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HS6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HT6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HU6">
+      <c r="HW6">
         <v>1.0900000000000001</v>
       </c>
-      <c r="HV6">
+      <c r="HX6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HY6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HZ6">
         <v>1.08</v>
       </c>
+      <c r="IA6">
+        <v>1.08</v>
+      </c>
+      <c r="IB6">
+        <v>1.08</v>
+      </c>
+      <c r="IC6">
+        <v>1.07</v>
+      </c>
+      <c r="ID6">
+        <v>1.07</v>
+      </c>
+      <c r="IE6">
+        <v>1.07</v>
+      </c>
+      <c r="IF6">
+        <v>1.07</v>
+      </c>
+      <c r="IG6">
+        <v>1.07</v>
+      </c>
+      <c r="IH6">
+        <v>1.07</v>
+      </c>
+      <c r="II6">
+        <v>1.06</v>
+      </c>
+      <c r="IJ6">
+        <v>1.05</v>
+      </c>
     </row>
-    <row r="7" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="D7">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="E7">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F7">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="G7">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H7">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I7">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J7">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K7">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="L7">
         <v>1.8</v>
@@ -5784,7 +6078,7 @@
         <v>1.69</v>
       </c>
       <c r="Q7">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R7">
         <v>1.64</v>
@@ -5793,13 +6087,13 @@
         <v>1.63</v>
       </c>
       <c r="T7">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U7">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V7">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W7">
         <v>1.51</v>
@@ -5808,7 +6102,7 @@
         <v>1.47</v>
       </c>
       <c r="Y7">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Z7">
         <v>1.39</v>
@@ -5835,19 +6129,19 @@
         <v>1.18</v>
       </c>
       <c r="AH7">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AI7">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AK7">
         <v>1.1000000000000001</v>
       </c>
       <c r="AL7">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AM7">
         <v>1.07</v>
@@ -5871,7 +6165,7 @@
         <v>1.01</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AU7">
         <v>1</v>
@@ -5901,7 +6195,7 @@
         <v>0.99</v>
       </c>
       <c r="BD7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="BE7">
         <v>0.98</v>
@@ -5937,7 +6231,7 @@
         <v>0.93</v>
       </c>
       <c r="BP7">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BQ7">
         <v>0.9</v>
@@ -5958,10 +6252,10 @@
         <v>0.89</v>
       </c>
       <c r="BW7">
+        <v>0.89</v>
+      </c>
+      <c r="BX7">
         <v>0.9</v>
-      </c>
-      <c r="BX7">
-        <v>0.91</v>
       </c>
       <c r="BY7">
         <v>0.92</v>
@@ -5973,7 +6267,7 @@
         <v>0.95</v>
       </c>
       <c r="CB7">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="CC7">
         <v>0.98</v>
@@ -5982,19 +6276,19 @@
         <v>0.99</v>
       </c>
       <c r="CE7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="CF7">
         <v>1.02</v>
       </c>
       <c r="CG7">
+        <v>1.03</v>
+      </c>
+      <c r="CH7">
         <v>1.04</v>
       </c>
-      <c r="CH7">
+      <c r="CI7">
         <v>1.05</v>
-      </c>
-      <c r="CI7">
-        <v>1.06</v>
       </c>
       <c r="CJ7">
         <v>1.06</v>
@@ -6006,7 +6300,7 @@
         <v>1.08</v>
       </c>
       <c r="CM7">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="CN7">
         <v>1.1100000000000001</v>
@@ -6015,16 +6309,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="CP7">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="CQ7">
         <v>1.1599999999999999</v>
       </c>
       <c r="CR7">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="CS7">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="CT7">
         <v>1.19</v>
@@ -6033,7 +6327,7 @@
         <v>1.2</v>
       </c>
       <c r="CV7">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="CW7">
         <v>1.21</v>
@@ -6069,7 +6363,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="DH7">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="DI7">
         <v>1.1499999999999999</v>
@@ -6078,7 +6372,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="DK7">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="DL7">
         <v>1.1599999999999999</v>
@@ -6099,7 +6393,7 @@
         <v>1.19</v>
       </c>
       <c r="DR7">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="DS7">
         <v>1.2</v>
@@ -6120,7 +6414,7 @@
         <v>1.24</v>
       </c>
       <c r="DY7">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="DZ7">
         <v>1.24</v>
@@ -6183,13 +6477,13 @@
         <v>1.08</v>
       </c>
       <c r="ET7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="EU7">
         <v>1.05</v>
       </c>
       <c r="EV7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="EW7">
         <v>1.04</v>
@@ -6219,7 +6513,7 @@
         <v>1.02</v>
       </c>
       <c r="FF7">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="FG7">
         <v>1.01</v>
@@ -6249,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="FP7">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="FQ7">
         <v>1.01</v>
@@ -6267,7 +6561,7 @@
         <v>1.02</v>
       </c>
       <c r="FV7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="FW7">
         <v>1.03</v>
@@ -6300,7 +6594,7 @@
         <v>1.05</v>
       </c>
       <c r="GG7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GH7">
         <v>1.06</v>
@@ -6309,13 +6603,13 @@
         <v>1.06</v>
       </c>
       <c r="GJ7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GK7">
         <v>1.07</v>
       </c>
       <c r="GL7">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="GM7">
         <v>1.08</v>
@@ -6330,91 +6624,91 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="GQ7">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="GR7">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GS7">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GT7">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GU7">
         <v>1.1299999999999999</v>
       </c>
       <c r="GV7">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="GW7">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="GX7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="GY7">
+        <v>1.17</v>
+      </c>
+      <c r="GZ7">
+        <v>1.18</v>
+      </c>
+      <c r="HA7">
+        <v>1.19</v>
+      </c>
+      <c r="HB7">
+        <v>1.2</v>
+      </c>
+      <c r="HC7">
+        <v>1.21</v>
+      </c>
+      <c r="HD7">
+        <v>1.21</v>
+      </c>
+      <c r="HE7">
+        <v>1.22</v>
+      </c>
+      <c r="HF7">
+        <v>1.22</v>
+      </c>
+      <c r="HG7">
+        <v>1.22</v>
+      </c>
+      <c r="HH7">
+        <v>1.22</v>
+      </c>
+      <c r="HI7">
+        <v>1.22</v>
+      </c>
+      <c r="HJ7">
+        <v>1.22</v>
+      </c>
+      <c r="HK7">
+        <v>1.21</v>
+      </c>
+      <c r="HL7">
+        <v>1.21</v>
+      </c>
+      <c r="HM7">
+        <v>1.2</v>
+      </c>
+      <c r="HN7">
+        <v>1.19</v>
+      </c>
+      <c r="HO7">
+        <v>1.19</v>
+      </c>
+      <c r="HP7">
+        <v>1.18</v>
+      </c>
+      <c r="HQ7">
+        <v>1.17</v>
+      </c>
+      <c r="HR7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HS7">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="GY7">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="GZ7">
-        <v>1.17</v>
-      </c>
-      <c r="HA7">
-        <v>1.18</v>
-      </c>
-      <c r="HB7">
-        <v>1.19</v>
-      </c>
-      <c r="HC7">
-        <v>1.19</v>
-      </c>
-      <c r="HD7">
-        <v>1.2</v>
-      </c>
-      <c r="HE7">
-        <v>1.2</v>
-      </c>
-      <c r="HF7">
-        <v>1.2</v>
-      </c>
-      <c r="HG7">
-        <v>1.2</v>
-      </c>
-      <c r="HH7">
-        <v>1.2</v>
-      </c>
-      <c r="HI7">
-        <v>1.2</v>
-      </c>
-      <c r="HJ7">
-        <v>1.2</v>
-      </c>
-      <c r="HK7">
-        <v>1.2</v>
-      </c>
-      <c r="HL7">
-        <v>1.19</v>
-      </c>
-      <c r="HM7">
-        <v>1.19</v>
-      </c>
-      <c r="HN7">
-        <v>1.18</v>
-      </c>
-      <c r="HO7">
-        <v>1.17</v>
-      </c>
-      <c r="HP7">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HQ7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HR7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HS7">
-        <v>1.1399999999999999</v>
       </c>
       <c r="HT7">
         <v>1.1399999999999999</v>
@@ -6425,8 +6719,50 @@
       <c r="HV7">
         <v>1.1299999999999999</v>
       </c>
+      <c r="HW7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HX7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HY7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HZ7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IA7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IB7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IC7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="ID7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IE7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IF7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="IG7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="IH7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="II7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="IJ7">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6440,22 +6776,22 @@
         <v>1.58</v>
       </c>
       <c r="E8">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="F8">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G8">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H8">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="I8">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J8">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="K8">
         <v>1.56</v>
@@ -6485,19 +6821,19 @@
         <v>1.46</v>
       </c>
       <c r="T8">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U8">
         <v>1.43</v>
       </c>
       <c r="V8">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W8">
         <v>1.38</v>
       </c>
       <c r="X8">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Y8">
         <v>1.32</v>
@@ -6509,10 +6845,10 @@
         <v>1.26</v>
       </c>
       <c r="AB8">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AC8">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AD8">
         <v>1.17</v>
@@ -6542,7 +6878,7 @@
         <v>1.02</v>
       </c>
       <c r="AM8">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AN8">
         <v>0.99</v>
@@ -6551,19 +6887,19 @@
         <v>0.98</v>
       </c>
       <c r="AP8">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AQ8">
         <v>0.97</v>
       </c>
       <c r="AR8">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AS8">
         <v>0.95</v>
       </c>
       <c r="AT8">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="AU8">
         <v>0.94</v>
@@ -6572,7 +6908,7 @@
         <v>0.94</v>
       </c>
       <c r="AW8">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="AX8">
         <v>0.93</v>
@@ -6587,7 +6923,7 @@
         <v>0.93</v>
       </c>
       <c r="BB8">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BC8">
         <v>0.92</v>
@@ -6617,7 +6953,7 @@
         <v>0.9</v>
       </c>
       <c r="BL8">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BM8">
         <v>0.89</v>
@@ -6635,7 +6971,7 @@
         <v>0.84</v>
       </c>
       <c r="BR8">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="BS8">
         <v>0.82</v>
@@ -6650,16 +6986,16 @@
         <v>0.82</v>
       </c>
       <c r="BW8">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="BX8">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="BY8">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BZ8">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="CA8">
         <v>0.87</v>
@@ -6680,13 +7016,13 @@
         <v>0.94</v>
       </c>
       <c r="CG8">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CH8">
         <v>0.96</v>
       </c>
       <c r="CI8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="CJ8">
         <v>0.97</v>
@@ -6713,7 +7049,7 @@
         <v>1.07</v>
       </c>
       <c r="CR8">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="CS8">
         <v>1.1000000000000001</v>
@@ -6746,22 +7082,22 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="DC8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="DD8">
         <v>1.1100000000000001</v>
-      </c>
-      <c r="DD8">
-        <v>1.1000000000000001</v>
       </c>
       <c r="DE8">
         <v>1.1000000000000001</v>
       </c>
       <c r="DF8">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="DG8">
         <v>1.0900000000000001</v>
       </c>
       <c r="DH8">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="DI8">
         <v>1.08</v>
@@ -6788,7 +7124,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="DQ8">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="DR8">
         <v>1.1299999999999999</v>
@@ -6812,7 +7148,7 @@
         <v>1.18</v>
       </c>
       <c r="DY8">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="DZ8">
         <v>1.19</v>
@@ -6827,7 +7163,7 @@
         <v>1.19</v>
       </c>
       <c r="ED8">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="EE8">
         <v>1.18</v>
@@ -6845,7 +7181,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="EJ8">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="EK8">
         <v>1.1499999999999999</v>
@@ -6854,7 +7190,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="EM8">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="EN8">
         <v>1.1100000000000001</v>
@@ -6965,7 +7301,7 @@
         <v>0.99</v>
       </c>
       <c r="FX8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="FY8">
         <v>1</v>
@@ -7004,147 +7340,189 @@
         <v>1.03</v>
       </c>
       <c r="GK8">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GL8">
         <v>1.04</v>
       </c>
       <c r="GM8">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="GN8">
         <v>1.05</v>
       </c>
       <c r="GO8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="GP8">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GQ8">
         <v>1.07</v>
       </c>
       <c r="GR8">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="GS8">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="GT8">
         <v>1.0900000000000001</v>
       </c>
       <c r="GU8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GV8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="GW8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="GX8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="GY8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="GZ8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HA8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HB8">
+        <v>1.17</v>
+      </c>
+      <c r="HC8">
+        <v>1.17</v>
+      </c>
+      <c r="HD8">
+        <v>1.18</v>
+      </c>
+      <c r="HE8">
+        <v>1.18</v>
+      </c>
+      <c r="HF8">
+        <v>1.18</v>
+      </c>
+      <c r="HG8">
+        <v>1.18</v>
+      </c>
+      <c r="HH8">
+        <v>1.18</v>
+      </c>
+      <c r="HI8">
+        <v>1.18</v>
+      </c>
+      <c r="HJ8">
+        <v>1.18</v>
+      </c>
+      <c r="HK8">
+        <v>1.18</v>
+      </c>
+      <c r="HL8">
+        <v>1.18</v>
+      </c>
+      <c r="HM8">
+        <v>1.17</v>
+      </c>
+      <c r="HN8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="HO8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="HP8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HQ8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HR8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HS8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="HT8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="HU8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HV8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HW8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="GV8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="GW8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="GX8">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="GY8">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="GZ8">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HA8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HB8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HC8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HD8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HE8">
-        <v>1.17</v>
-      </c>
-      <c r="HF8">
-        <v>1.17</v>
-      </c>
-      <c r="HG8">
-        <v>1.17</v>
-      </c>
-      <c r="HH8">
-        <v>1.17</v>
-      </c>
-      <c r="HI8">
-        <v>1.17</v>
-      </c>
-      <c r="HJ8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HK8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HL8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HM8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HN8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="HO8">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="HP8">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="HQ8">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="HR8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="HS8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HT8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HU8">
+      <c r="HX8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="HY8">
         <v>1.08</v>
       </c>
-      <c r="HV8">
+      <c r="HZ8">
+        <v>1.08</v>
+      </c>
+      <c r="IA8">
         <v>1.07</v>
       </c>
+      <c r="IB8">
+        <v>1.07</v>
+      </c>
+      <c r="IC8">
+        <v>1.07</v>
+      </c>
+      <c r="ID8">
+        <v>1.06</v>
+      </c>
+      <c r="IE8">
+        <v>1.06</v>
+      </c>
+      <c r="IF8">
+        <v>1.06</v>
+      </c>
+      <c r="IG8">
+        <v>1.06</v>
+      </c>
+      <c r="IH8">
+        <v>1.06</v>
+      </c>
+      <c r="II8">
+        <v>1.06</v>
+      </c>
+      <c r="IJ8">
+        <v>1.04</v>
+      </c>
     </row>
-    <row r="9" spans="1:230" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:244" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="C9">
-        <v>2.15</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D9">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="E9">
+        <v>2.1</v>
+      </c>
+      <c r="F9">
         <v>2.06</v>
       </c>
-      <c r="F9">
-        <v>2.0499999999999998</v>
-      </c>
       <c r="G9">
-        <v>2.0099999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H9">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I9">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J9">
         <v>1.89</v>
@@ -7153,34 +7531,34 @@
         <v>1.86</v>
       </c>
       <c r="L9">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M9">
         <v>1.79</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O9">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="P9">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q9">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R9">
         <v>1.66</v>
       </c>
       <c r="S9">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="T9">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U9">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V9">
         <v>1.56</v>
@@ -7189,7 +7567,7 @@
         <v>1.52</v>
       </c>
       <c r="X9">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Y9">
         <v>1.44</v>
@@ -7198,7 +7576,7 @@
         <v>1.4</v>
       </c>
       <c r="AA9">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AB9">
         <v>1.33</v>
@@ -7210,13 +7588,13 @@
         <v>1.26</v>
       </c>
       <c r="AE9">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AF9">
         <v>1.21</v>
       </c>
       <c r="AG9">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AH9">
         <v>1.1599999999999999</v>
@@ -7228,7 +7606,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AK9">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL9">
         <v>1.0900000000000001</v>
@@ -7246,10 +7624,10 @@
         <v>1.04</v>
       </c>
       <c r="AQ9">
+        <v>1.04</v>
+      </c>
+      <c r="AR9">
         <v>1.03</v>
-      </c>
-      <c r="AR9">
-        <v>1.02</v>
       </c>
       <c r="AS9">
         <v>1.02</v>
@@ -7276,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="BB9">
         <v>0.99</v>
@@ -7294,7 +7672,7 @@
         <v>0.99</v>
       </c>
       <c r="BG9">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="BH9">
         <v>0.98</v>
@@ -7306,7 +7684,7 @@
         <v>0.98</v>
       </c>
       <c r="BK9">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="BL9">
         <v>0.97</v>
@@ -7318,7 +7696,7 @@
         <v>0.95</v>
       </c>
       <c r="BO9">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="BP9">
         <v>0.92</v>
@@ -7354,13 +7732,13 @@
         <v>0.94</v>
       </c>
       <c r="CA9">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="CB9">
         <v>0.97</v>
       </c>
       <c r="CC9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CD9">
         <v>1</v>
@@ -7408,7 +7786,7 @@
         <v>1.18</v>
       </c>
       <c r="CS9">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="CT9">
         <v>1.2</v>
@@ -7420,10 +7798,10 @@
         <v>1.21</v>
       </c>
       <c r="CW9">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="CX9">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="CY9">
         <v>1.22</v>
@@ -7432,10 +7810,10 @@
         <v>1.22</v>
       </c>
       <c r="DA9">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="DB9">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="DC9">
         <v>1.2</v>
@@ -7492,7 +7870,7 @@
         <v>1.22</v>
       </c>
       <c r="DU9">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="DV9">
         <v>1.23</v>
@@ -7501,7 +7879,7 @@
         <v>1.24</v>
       </c>
       <c r="DX9">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="DY9">
         <v>1.25</v>
@@ -7540,7 +7918,7 @@
         <v>1.21</v>
       </c>
       <c r="EK9">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="EL9">
         <v>1.18</v>
@@ -7606,7 +7984,7 @@
         <v>1.02</v>
       </c>
       <c r="FG9">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="FH9">
         <v>1.01</v>
@@ -7648,7 +8026,7 @@
         <v>1.02</v>
       </c>
       <c r="FU9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="FV9">
         <v>1.03</v>
@@ -7663,7 +8041,7 @@
         <v>1.03</v>
       </c>
       <c r="FZ9">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="GA9">
         <v>1.04</v>
@@ -7690,7 +8068,7 @@
         <v>1.06</v>
       </c>
       <c r="GI9">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="GJ9">
         <v>1.07</v>
@@ -7708,7 +8086,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="GO9">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="GP9">
         <v>1.1000000000000001</v>
@@ -7717,97 +8095,139 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="GR9">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="GS9">
         <v>1.1200000000000001</v>
       </c>
       <c r="GT9">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="GU9">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="GV9">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="GW9">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="GX9">
+        <v>1.17</v>
+      </c>
+      <c r="GY9">
+        <v>1.18</v>
+      </c>
+      <c r="GZ9">
+        <v>1.19</v>
+      </c>
+      <c r="HA9">
+        <v>1.2</v>
+      </c>
+      <c r="HB9">
+        <v>1.2</v>
+      </c>
+      <c r="HC9">
+        <v>1.21</v>
+      </c>
+      <c r="HD9">
+        <v>1.22</v>
+      </c>
+      <c r="HE9">
+        <v>1.22</v>
+      </c>
+      <c r="HF9">
+        <v>1.22</v>
+      </c>
+      <c r="HG9">
+        <v>1.22</v>
+      </c>
+      <c r="HH9">
+        <v>1.22</v>
+      </c>
+      <c r="HI9">
+        <v>1.22</v>
+      </c>
+      <c r="HJ9">
+        <v>1.22</v>
+      </c>
+      <c r="HK9">
+        <v>1.21</v>
+      </c>
+      <c r="HL9">
+        <v>1.21</v>
+      </c>
+      <c r="HM9">
+        <v>1.2</v>
+      </c>
+      <c r="HN9">
+        <v>1.2</v>
+      </c>
+      <c r="HO9">
+        <v>1.19</v>
+      </c>
+      <c r="HP9">
+        <v>1.18</v>
+      </c>
+      <c r="HQ9">
+        <v>1.17</v>
+      </c>
+      <c r="HR9">
         <v>1.1599999999999999</v>
-      </c>
-      <c r="GY9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="GZ9">
-        <v>1.17</v>
-      </c>
-      <c r="HA9">
-        <v>1.18</v>
-      </c>
-      <c r="HB9">
-        <v>1.19</v>
-      </c>
-      <c r="HC9">
-        <v>1.2</v>
-      </c>
-      <c r="HD9">
-        <v>1.2</v>
-      </c>
-      <c r="HE9">
-        <v>1.2</v>
-      </c>
-      <c r="HF9">
-        <v>1.21</v>
-      </c>
-      <c r="HG9">
-        <v>1.21</v>
-      </c>
-      <c r="HH9">
-        <v>1.2</v>
-      </c>
-      <c r="HI9">
-        <v>1.2</v>
-      </c>
-      <c r="HJ9">
-        <v>1.2</v>
-      </c>
-      <c r="HK9">
-        <v>1.2</v>
-      </c>
-      <c r="HL9">
-        <v>1.19</v>
-      </c>
-      <c r="HM9">
-        <v>1.19</v>
-      </c>
-      <c r="HN9">
-        <v>1.18</v>
-      </c>
-      <c r="HO9">
-        <v>1.18</v>
-      </c>
-      <c r="HP9">
-        <v>1.17</v>
-      </c>
-      <c r="HQ9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="HR9">
-        <v>1.1499999999999999</v>
       </c>
       <c r="HS9">
         <v>1.1499999999999999</v>
       </c>
       <c r="HT9">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="HU9">
         <v>1.1399999999999999</v>
       </c>
       <c r="HV9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="HW9">
         <v>1.1299999999999999</v>
+      </c>
+      <c r="HX9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HY9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="HZ9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="IA9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="IB9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IC9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="ID9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="IE9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="IF9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="IG9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="IH9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="II9">
+        <v>1.17</v>
+      </c>
+      <c r="IJ9">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
